--- a/src/main/resources/studentPreferences120.xlsx
+++ b/src/main/resources/studentPreferences120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="291">
   <si>
     <t>First Name</t>
   </si>
@@ -53,103 +53,289 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Hussein</t>
-  </si>
-  <si>
-    <t>Ferrarini</t>
-  </si>
-  <si>
-    <t>Heavy Metal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing TV comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Benton</t>
-  </si>
-  <si>
-    <t>Worsnip</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning battles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Big Bang Theory and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Adorne</t>
-  </si>
-  <si>
-    <t>Masedon</t>
-  </si>
-  <si>
-    <t>making ice sculptures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Boothe</t>
-  </si>
-  <si>
-    <t>Henrys</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>Yvon</t>
+  </si>
+  <si>
+    <t>Deener</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Punk rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kung Fu and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scandalizing polite society in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding retirement in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>the Mongols and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Escape From New York and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing punk rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emile</t>
+  </si>
+  <si>
+    <t>Mounch</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>going on commando missions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Merill</t>
+  </si>
+  <si>
+    <t>Tydd</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Martial Arts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>Stefanovic</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erinna</t>
+  </si>
+  <si>
+    <t>Ackerley</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>looking for immortality in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jayson</t>
+  </si>
+  <si>
+    <t>Marcq</t>
+  </si>
+  <si>
+    <t>Spenser</t>
+  </si>
+  <si>
+    <t>Pichmann</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Athletics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robinetta</t>
+  </si>
+  <si>
+    <t>Forty</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Ruthann</t>
+  </si>
+  <si>
+    <t>MacConnal</t>
+  </si>
+  <si>
+    <t>promoting humanism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>convicting criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>Petracchi</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mamie</t>
+  </si>
+  <si>
+    <t>O' Connell</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Hutten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mongolia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>Runcie</t>
+  </si>
+  <si>
+    <t>Lyndell</t>
+  </si>
+  <si>
+    <t>Bjorkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jinny</t>
+  </si>
+  <si>
+    <t>Haddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Georgena</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Italian Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Baryram</t>
+  </si>
+  <si>
+    <t>Wrightim</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Keyse</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Paish</t>
+  </si>
+  <si>
+    <t>Hulda</t>
+  </si>
+  <si>
+    <t>MacShane</t>
+  </si>
+  <si>
+    <t>Nola</t>
+  </si>
+  <si>
+    <t>Baddoe</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Frier</t>
+  </si>
+  <si>
+    <t>CIA and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jeremias</t>
+  </si>
+  <si>
+    <t>Gotfrey</t>
   </si>
   <si>
     <t>Douglas</t>
@@ -158,499 +344,517 @@
     <t>Benford</t>
   </si>
   <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Malvin</t>
-  </si>
-  <si>
-    <t>Storcke</t>
-  </si>
-  <si>
-    <t>composing classical music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Farly</t>
-  </si>
-  <si>
-    <t>Bramble</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Flaxon</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Giselle</t>
-  </si>
-  <si>
-    <t>de Nore</t>
-  </si>
-  <si>
-    <t>Emalee</t>
-  </si>
-  <si>
-    <t>Rannald</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Brandi</t>
-  </si>
-  <si>
-    <t>Riedel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Ardelle</t>
-  </si>
-  <si>
-    <t>Cartin</t>
-  </si>
-  <si>
-    <t>Curb Your Enthusiasm and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Shaylah</t>
-  </si>
-  <si>
-    <t>Braidford</t>
-  </si>
-  <si>
-    <t>Talk radio and the Cthulu-Dagon mythos</t>
+    <t>running a clandestine spy organization in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shanta</t>
+  </si>
+  <si>
+    <t>Harbach</t>
+  </si>
+  <si>
+    <t>Gwendolen</t>
+  </si>
+  <si>
+    <t>Krause</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Scamaden</t>
+  </si>
+  <si>
+    <t>Aguie</t>
+  </si>
+  <si>
+    <t>Brabbs</t>
+  </si>
+  <si>
+    <t>Nikolia</t>
+  </si>
+  <si>
+    <t>Piffe</t>
+  </si>
+  <si>
+    <t>Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Norkett</t>
+  </si>
+  <si>
+    <t>Egor</t>
+  </si>
+  <si>
+    <t>Gottschalk</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>Grix</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>McCarroll</t>
+  </si>
+  <si>
+    <t>Joseito</t>
+  </si>
+  <si>
+    <t>Nazair</t>
+  </si>
+  <si>
+    <t>Dominick</t>
+  </si>
+  <si>
+    <t>Bloxam</t>
+  </si>
+  <si>
+    <t>La verne</t>
+  </si>
+  <si>
+    <t>Lamplugh</t>
+  </si>
+  <si>
+    <t>Raoul</t>
+  </si>
+  <si>
+    <t>Brunskill</t>
+  </si>
+  <si>
+    <t>Anica</t>
+  </si>
+  <si>
+    <t>Kindley</t>
+  </si>
+  <si>
+    <t>Cristobal</t>
+  </si>
+  <si>
+    <t>Richly</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Southerell</t>
+  </si>
+  <si>
+    <t>Maddy</t>
+  </si>
+  <si>
+    <t>Staite</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Roels</t>
+  </si>
+  <si>
+    <t>Lucais</t>
+  </si>
+  <si>
+    <t>Casemore</t>
+  </si>
+  <si>
+    <t>Bernardina</t>
+  </si>
+  <si>
+    <t>Pavolillo</t>
+  </si>
+  <si>
+    <t>Gustaf</t>
+  </si>
+  <si>
+    <t>Chappel</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>Tames</t>
+  </si>
+  <si>
+    <t>Phedra</t>
+  </si>
+  <si>
+    <t>St Angel</t>
+  </si>
+  <si>
+    <t>Kristoffer</t>
+  </si>
+  <si>
+    <t>Whalley</t>
+  </si>
+  <si>
+    <t>Barbey</t>
+  </si>
+  <si>
+    <t>Baiden</t>
+  </si>
+  <si>
+    <t>Arnoldo</t>
+  </si>
+  <si>
+    <t>Di Giorgio</t>
+  </si>
+  <si>
+    <t>Merell</t>
+  </si>
+  <si>
+    <t>Wevell</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>Margery</t>
+  </si>
+  <si>
+    <t>Ulrike</t>
+  </si>
+  <si>
+    <t>Gelly</t>
+  </si>
+  <si>
+    <t>Killie</t>
+  </si>
+  <si>
+    <t>Dinjes</t>
+  </si>
+  <si>
+    <t>Robinette</t>
+  </si>
+  <si>
+    <t>Lockless</t>
+  </si>
+  <si>
+    <t>Kaia</t>
+  </si>
+  <si>
+    <t>Clemenzo</t>
+  </si>
+  <si>
+    <t>Eugenia</t>
+  </si>
+  <si>
+    <t>Ciobotaru</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Burborough</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Grubey</t>
+  </si>
+  <si>
+    <t>Elianore</t>
+  </si>
+  <si>
+    <t>Ackrill</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Forsyde</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Baldetti</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>Tabbernor</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Coltherd</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Robinet</t>
+  </si>
+  <si>
+    <t>Cordelie</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Chaffin</t>
+  </si>
+  <si>
+    <t>Emeline</t>
+  </si>
+  <si>
+    <t>Airs</t>
+  </si>
+  <si>
+    <t>Addie</t>
+  </si>
+  <si>
+    <t>Somerville</t>
+  </si>
+  <si>
+    <t>Armin</t>
+  </si>
+  <si>
+    <t>Lunck</t>
+  </si>
+  <si>
+    <t>Chlo</t>
+  </si>
+  <si>
+    <t>Shubotham</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jervis</t>
+  </si>
+  <si>
+    <t>Boatwright</t>
+  </si>
+  <si>
+    <t>Veriee</t>
+  </si>
+  <si>
+    <t>Orans</t>
+  </si>
+  <si>
+    <t>Timothee</t>
+  </si>
+  <si>
+    <t>Boylan</t>
+  </si>
+  <si>
+    <t>Brittni</t>
+  </si>
+  <si>
+    <t>Grisley</t>
+  </si>
+  <si>
+    <t>Flin</t>
+  </si>
+  <si>
+    <t>Bonnell</t>
+  </si>
+  <si>
+    <t>Mildred</t>
+  </si>
+  <si>
+    <t>Shakle</t>
+  </si>
+  <si>
+    <t>Talbot</t>
+  </si>
+  <si>
+    <t>Buesnel</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Craggie</t>
+  </si>
+  <si>
+    <t>Hamner</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Bidgod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Franscioni</t>
   </si>
   <si>
     <t>Jodi</t>
   </si>
   <si>
-    <t>Franzetti</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mathilde</t>
-  </si>
-  <si>
-    <t>Clingan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Christoffer</t>
-  </si>
-  <si>
-    <t>Klimowicz</t>
-  </si>
-  <si>
-    <t>English poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>disciplining students in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chlo</t>
-  </si>
-  <si>
-    <t>Shubotham</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Findley</t>
-  </si>
-  <si>
-    <t>Grigorini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Freddie</t>
-  </si>
-  <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Michaeline</t>
-  </si>
-  <si>
-    <t>Carren</t>
-  </si>
-  <si>
-    <t>Koo</t>
-  </si>
-  <si>
-    <t>Pecha</t>
-  </si>
-  <si>
-    <t>Karlan</t>
-  </si>
-  <si>
-    <t>Lufkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Klarrisa</t>
-  </si>
-  <si>
-    <t>Fridd</t>
-  </si>
-  <si>
-    <t>Clary</t>
-  </si>
-  <si>
-    <t>Gerardet</t>
-  </si>
-  <si>
-    <t>Sancho</t>
-  </si>
-  <si>
-    <t>Kilgrove</t>
-  </si>
-  <si>
-    <t>Gilda</t>
-  </si>
-  <si>
-    <t>Christopherson</t>
-  </si>
-  <si>
-    <t>Reena</t>
-  </si>
-  <si>
-    <t>Muzzall</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sofie</t>
-  </si>
-  <si>
-    <t>Olligan</t>
-  </si>
-  <si>
-    <t>Nana</t>
-  </si>
-  <si>
-    <t>Muskett</t>
-  </si>
-  <si>
-    <t>Edith</t>
-  </si>
-  <si>
-    <t>Mully</t>
-  </si>
-  <si>
-    <t>Robinette</t>
-  </si>
-  <si>
-    <t>Lockless</t>
-  </si>
-  <si>
-    <t>Tisha</t>
-  </si>
-  <si>
-    <t>Fawdrie</t>
-  </si>
-  <si>
-    <t>Clareta</t>
-  </si>
-  <si>
-    <t>Lared</t>
-  </si>
-  <si>
-    <t>Win</t>
-  </si>
-  <si>
-    <t>Grubey</t>
-  </si>
-  <si>
-    <t>Cosmo</t>
-  </si>
-  <si>
-    <t>Ubsdall</t>
-  </si>
-  <si>
-    <t>Spenser</t>
-  </si>
-  <si>
-    <t>Pichmann</t>
-  </si>
-  <si>
-    <t>Ellynn</t>
-  </si>
-  <si>
-    <t>Nowland</t>
-  </si>
-  <si>
-    <t>Savina</t>
-  </si>
-  <si>
-    <t>Phythian</t>
-  </si>
-  <si>
-    <t>Merla</t>
-  </si>
-  <si>
-    <t>Grewes</t>
-  </si>
-  <si>
-    <t>Randell</t>
-  </si>
-  <si>
-    <t>Kemwall</t>
-  </si>
-  <si>
-    <t>Merill</t>
-  </si>
-  <si>
-    <t>Tydd</t>
-  </si>
-  <si>
-    <t>Shalom</t>
-  </si>
-  <si>
-    <t>Donneely</t>
-  </si>
-  <si>
-    <t>Flin</t>
-  </si>
-  <si>
-    <t>Bonnell</t>
-  </si>
-  <si>
-    <t>Harli</t>
-  </si>
-  <si>
-    <t>Leving</t>
-  </si>
-  <si>
-    <t>Baryram</t>
-  </si>
-  <si>
-    <t>Grishanin</t>
-  </si>
-  <si>
-    <t>Lay</t>
-  </si>
-  <si>
-    <t>Remnant</t>
-  </si>
-  <si>
-    <t>Carolus</t>
-  </si>
-  <si>
-    <t>Livezley</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tamiko</t>
-  </si>
-  <si>
-    <t>Chamney</t>
-  </si>
-  <si>
-    <t>Deidre</t>
-  </si>
-  <si>
-    <t>Barlas</t>
-  </si>
-  <si>
-    <t>Gerda</t>
-  </si>
-  <si>
-    <t>Iacomo</t>
-  </si>
-  <si>
-    <t>Malorie</t>
-  </si>
-  <si>
-    <t>Gregh</t>
-  </si>
-  <si>
-    <t>Malanie</t>
-  </si>
-  <si>
-    <t>Llewellin</t>
-  </si>
-  <si>
-    <t>Xaviera</t>
-  </si>
-  <si>
-    <t>Shimmings</t>
-  </si>
-  <si>
-    <t>Farlee</t>
-  </si>
-  <si>
-    <t>Moral</t>
-  </si>
-  <si>
-    <t>Maryjo</t>
-  </si>
-  <si>
-    <t>Davern</t>
-  </si>
-  <si>
-    <t>Yvon</t>
-  </si>
-  <si>
-    <t>Deener</t>
-  </si>
-  <si>
-    <t>Ivette</t>
-  </si>
-  <si>
-    <t>Presdee</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>Margery</t>
-  </si>
-  <si>
-    <t>Averell</t>
-  </si>
-  <si>
-    <t>Kelloch</t>
-  </si>
-  <si>
-    <t>Tobiah</t>
-  </si>
-  <si>
-    <t>Bastock</t>
-  </si>
-  <si>
-    <t>Koenraad</t>
-  </si>
-  <si>
-    <t>Cartan</t>
-  </si>
-  <si>
-    <t>Grover</t>
-  </si>
-  <si>
-    <t>Whittingham</t>
-  </si>
-  <si>
-    <t>Carley</t>
-  </si>
-  <si>
-    <t>Mungham</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Gallaher</t>
-  </si>
-  <si>
-    <t>Irvin</t>
-  </si>
-  <si>
-    <t>Bootyman</t>
-  </si>
-  <si>
-    <t>Sylas</t>
-  </si>
-  <si>
-    <t>Dorow</t>
-  </si>
-  <si>
-    <t>Nap</t>
-  </si>
-  <si>
-    <t>Jirzik</t>
-  </si>
-  <si>
-    <t>Flss</t>
-  </si>
-  <si>
-    <t>Kleinerman</t>
-  </si>
-  <si>
-    <t>Costa</t>
-  </si>
-  <si>
-    <t>Paunsford</t>
-  </si>
-  <si>
-    <t>Tandi</t>
-  </si>
-  <si>
-    <t>Keesman</t>
-  </si>
-  <si>
-    <t>Romona</t>
-  </si>
-  <si>
-    <t>Giggie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Emmerich</t>
-  </si>
-  <si>
-    <t>Negal</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Shay</t>
-  </si>
-  <si>
-    <t>Sysland</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
+    <t>Ashman</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>O'Fallone</t>
+  </si>
+  <si>
+    <t>Tildie</t>
+  </si>
+  <si>
+    <t>Eldridge</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Drohan</t>
+  </si>
+  <si>
+    <t>Franciskus</t>
+  </si>
+  <si>
+    <t>Holdron</t>
+  </si>
+  <si>
+    <t>Melosa</t>
+  </si>
+  <si>
+    <t>Yakushkev</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>McLugaish</t>
+  </si>
+  <si>
+    <t>Silvan</t>
+  </si>
+  <si>
+    <t>Macellar</t>
+  </si>
+  <si>
+    <t>Martino</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Josi</t>
+  </si>
+  <si>
+    <t>Spinney</t>
+  </si>
+  <si>
+    <t>Gawen</t>
+  </si>
+  <si>
+    <t>Fazackerley</t>
+  </si>
+  <si>
+    <t>Natalina</t>
+  </si>
+  <si>
+    <t>Lalevee</t>
+  </si>
+  <si>
+    <t>Cammi</t>
+  </si>
+  <si>
+    <t>Yezafovich</t>
+  </si>
+  <si>
+    <t>Milty</t>
+  </si>
+  <si>
+    <t>Sommerfeld</t>
+  </si>
+  <si>
+    <t>Jennilee</t>
+  </si>
+  <si>
+    <t>Grund</t>
+  </si>
+  <si>
+    <t>Keven</t>
+  </si>
+  <si>
+    <t>Corzon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lonee</t>
+  </si>
+  <si>
+    <t>Delahunty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Vinita</t>
+  </si>
+  <si>
+    <t>Banes</t>
+  </si>
+  <si>
+    <t>Harses</t>
+  </si>
+  <si>
+    <t>Arabele</t>
+  </si>
+  <si>
+    <t>Haberfield</t>
+  </si>
+  <si>
+    <t>Darrel</t>
+  </si>
+  <si>
+    <t>Danelut</t>
+  </si>
+  <si>
+    <t>Bancroft</t>
+  </si>
+  <si>
+    <t>Medlin</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>clinging to past dreams in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Jocelin</t>
@@ -659,238 +863,10 @@
     <t>Abrahart</t>
   </si>
   <si>
-    <t>Darrel</t>
-  </si>
-  <si>
-    <t>Danelut</t>
-  </si>
-  <si>
-    <t>Minerva</t>
-  </si>
-  <si>
-    <t>McNeish</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Theodoric</t>
-  </si>
-  <si>
-    <t>Blain</t>
-  </si>
-  <si>
-    <t>Tedman</t>
-  </si>
-  <si>
-    <t>Mulroy</t>
-  </si>
-  <si>
-    <t>Althea</t>
-  </si>
-  <si>
-    <t>Woodvine</t>
-  </si>
-  <si>
-    <t>Tully</t>
-  </si>
-  <si>
-    <t>Urpeth</t>
-  </si>
-  <si>
-    <t>Maxine</t>
-  </si>
-  <si>
-    <t>Dyerson</t>
-  </si>
-  <si>
-    <t>Corrie</t>
-  </si>
-  <si>
-    <t>Batham</t>
-  </si>
-  <si>
-    <t>Melosa</t>
-  </si>
-  <si>
-    <t>Yakushkev</t>
-  </si>
-  <si>
-    <t>Tobey</t>
-  </si>
-  <si>
-    <t>Rostern</t>
-  </si>
-  <si>
-    <t>Josie</t>
-  </si>
-  <si>
-    <t>Ewbanks</t>
-  </si>
-  <si>
-    <t>Humfried</t>
-  </si>
-  <si>
-    <t>Popple</t>
-  </si>
-  <si>
-    <t>Philbert</t>
-  </si>
-  <si>
-    <t>Jost</t>
-  </si>
-  <si>
-    <t>Gustaf</t>
-  </si>
-  <si>
-    <t>Chappel</t>
-  </si>
-  <si>
-    <t>Harri</t>
-  </si>
-  <si>
-    <t>Pellamonuten</t>
-  </si>
-  <si>
-    <t>Alasdair</t>
-  </si>
-  <si>
-    <t>Stefanovic</t>
-  </si>
-  <si>
-    <t>Clemmy</t>
-  </si>
-  <si>
-    <t>Trail</t>
-  </si>
-  <si>
-    <t>Teresita</t>
-  </si>
-  <si>
-    <t>Blackader</t>
-  </si>
-  <si>
-    <t>Claudianus</t>
-  </si>
-  <si>
-    <t>Hostan</t>
-  </si>
-  <si>
-    <t>Bud</t>
-  </si>
-  <si>
-    <t>Lawlee</t>
-  </si>
-  <si>
-    <t>Cristobal</t>
-  </si>
-  <si>
-    <t>Richly</t>
-  </si>
-  <si>
-    <t>Kinsley</t>
-  </si>
-  <si>
-    <t>Josefovic</t>
-  </si>
-  <si>
-    <t>Joella</t>
-  </si>
-  <si>
-    <t>Sneezem</t>
-  </si>
-  <si>
-    <t>collecting fossils in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephie</t>
-  </si>
-  <si>
-    <t>Luety</t>
-  </si>
-  <si>
-    <t>Everard</t>
-  </si>
-  <si>
-    <t>Jansky</t>
-  </si>
-  <si>
-    <t>Karlene</t>
-  </si>
-  <si>
-    <t>McJerrow</t>
-  </si>
-  <si>
-    <t>Merell</t>
-  </si>
-  <si>
-    <t>Ennion</t>
-  </si>
-  <si>
-    <t>Jeremias</t>
-  </si>
-  <si>
-    <t>Gotfrey</t>
-  </si>
-  <si>
-    <t>Kristoffer</t>
-  </si>
-  <si>
-    <t>Whalley</t>
-  </si>
-  <si>
-    <t>Lilla</t>
-  </si>
-  <si>
-    <t>Ferentz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Vanda</t>
-  </si>
-  <si>
-    <t>de Courcy</t>
-  </si>
-  <si>
-    <t>Renee</t>
-  </si>
-  <si>
-    <t>Hazeldene</t>
-  </si>
-  <si>
-    <t>Karol</t>
-  </si>
-  <si>
-    <t>Barosch</t>
-  </si>
-  <si>
-    <t>Fania</t>
-  </si>
-  <si>
-    <t>Valentine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wilma</t>
-  </si>
-  <si>
-    <t>Spriggin</t>
-  </si>
-  <si>
-    <t>Jordana</t>
-  </si>
-  <si>
-    <t>MacDonagh</t>
-  </si>
-  <si>
-    <t>Dorelle</t>
-  </si>
-  <si>
-    <t>Brach</t>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>Henzer</t>
   </si>
   <si>
     <t>Phillip</t>
@@ -899,16 +875,16 @@
     <t>Lince</t>
   </si>
   <si>
-    <t>Marchelle</t>
-  </si>
-  <si>
-    <t>Lauder</t>
-  </si>
-  <si>
-    <t>Armin</t>
-  </si>
-  <si>
-    <t>Lunck</t>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Kolyagin</t>
+  </si>
+  <si>
+    <t>Lalo</t>
+  </si>
+  <si>
+    <t>MacDonald</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>8.606372448E9</v>
+        <v>4.113944048E9</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1032,10 +1008,10 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -1049,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>8.606372448E9</v>
+        <v>4.113944048E9</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1061,886 +1037,886 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.13254678798E11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.670770292E9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>1.3445345E7</v>
+        <v>2.468089124E9</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>8.248728234E9</v>
+        <v>1.234522222E9</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>1.715828441E9</v>
+        <v>2.533427487E9</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>8.07344617E8</v>
+        <v>4.390228491E9</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>3.932650835E9</v>
+        <v>7.317095954E9</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10" t="n">
-        <v>9.440592436E9</v>
+        <v>7.812293265E9</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
-        <v>4.63879124E9</v>
+        <v>6.625054576E9</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
-        <v>3.6188287E8</v>
+        <v>4.351320264E9</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>9.48051389E9</v>
+        <v>5.966653479E9</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
-        <v>1.547547223E9</v>
+        <v>4.66666667E8</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C15" t="n">
-        <v>5.17062029E8</v>
+        <v>3.359967091E9</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>1.3556753E7</v>
+        <v>2.251555373E9</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C17" t="n">
-        <v>2.332303719E9</v>
+        <v>5.4783221E7</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C18" t="n">
-        <v>8.651880077E9</v>
+        <v>3.998067114E9</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C19" t="n">
-        <v>5.423124325E9</v>
+        <v>6.641246686E9</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C20" t="n">
-        <v>4.783117098E9</v>
+        <v>6.838323909E9</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" t="n">
-        <v>7.9076259E9</v>
+        <v>8.267037801E9</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>7.376613799E9</v>
+        <v>1.39909762E8</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" t="n">
-        <v>8.724602482E9</v>
+        <v>8.979436531E9</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="n">
-        <v>7.05305139E8</v>
+        <v>1.458336781E9</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" t="s">
-        <v>104</v>
-      </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -1951,37 +1927,37 @@
         <v>107</v>
       </c>
       <c r="C25" t="n">
-        <v>5.674917108E9</v>
+        <v>9.143057836E9</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1992,160 +1968,160 @@
         <v>109</v>
       </c>
       <c r="C26" t="n">
-        <v>1.386782423E9</v>
+        <v>1.715828441E9</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
         <v>80</v>
       </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" t="n">
-        <v>6.5039912E9</v>
+        <v>8.192573578E9</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" t="s">
         <v>51</v>
       </c>
-      <c r="J27" t="s">
-        <v>48</v>
-      </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" t="n">
-        <v>6.989355369E9</v>
+        <v>7.2386364E7</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="n">
-        <v>2.753466458E9</v>
+        <v>3.324045244E9</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -2156,37 +2132,37 @@
         <v>118</v>
       </c>
       <c r="C30" t="n">
-        <v>4.898078283E9</v>
+        <v>1.190363323E9</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
         <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
       </c>
       <c r="J30" t="s">
         <v>35</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="L30" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2197,1387 +2173,1387 @@
         <v>120</v>
       </c>
       <c r="C31" t="n">
-        <v>1.53334489E9</v>
+        <v>6.384795405E9</v>
       </c>
       <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
         <v>51</v>
       </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M31" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" t="n">
-        <v>4.261091566E9</v>
+        <v>5.959702975E9</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L32" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" t="n">
-        <v>5.276796343E9</v>
+        <v>6.64442222223E11</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C34" t="n">
-        <v>7.233111752E9</v>
+        <v>3456789.0</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K34" t="s">
         <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" t="n">
-        <v>2.674439968E9</v>
+        <v>4.254733475E9</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s">
-        <v>36</v>
-      </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K35" t="s">
         <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" t="n">
-        <v>7.842346957E9</v>
+        <v>2.233570303E9</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" t="n">
-        <v>8.64137787E8</v>
+        <v>9.174460145E9</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" t="n">
-        <v>7.317095954E9</v>
+        <v>7.788470756E9</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" t="s">
         <v>49</v>
       </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>34</v>
-      </c>
       <c r="L38" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" t="n">
-        <v>8.889668006E9</v>
+        <v>8.214326453E9</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="n">
-        <v>7.477658395E9</v>
+        <v>2.814635459E9</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s">
         <v>50</v>
       </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" t="n">
-        <v>6.43334179E8</v>
+        <v>7.294661549E9</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L41" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" t="n">
-        <v>3.408808433E9</v>
+        <v>6.389628242E9</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="n">
-        <v>2.468089124E9</v>
+        <v>4.179392023E9</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C44" t="n">
-        <v>5.615034468E9</v>
+        <v>4.688559036E9</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
         <v>45</v>
       </c>
-      <c r="F44" t="s">
-        <v>29</v>
-      </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="C45" t="n">
-        <v>2.899649184E9</v>
+        <v>4.66666667E8</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
         <v>30</v>
       </c>
-      <c r="H45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" t="s">
-        <v>55</v>
-      </c>
       <c r="J45" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M45" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
         <v>149</v>
       </c>
-      <c r="B46" t="s">
-        <v>150</v>
-      </c>
       <c r="C46" t="n">
-        <v>5.35230185E9</v>
+        <v>4.444321111E9</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
         <v>23</v>
       </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M46" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
         <v>151</v>
       </c>
-      <c r="B47" t="s">
-        <v>152</v>
-      </c>
       <c r="C47" t="n">
-        <v>5.27998609E8</v>
+        <v>6.32479312E8</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L47" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
         <v>153</v>
       </c>
-      <c r="B48" t="s">
-        <v>154</v>
-      </c>
       <c r="C48" t="n">
-        <v>7.9270647E7</v>
+        <v>2.248789526E9</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
         <v>44</v>
-      </c>
-      <c r="G48" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J48" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48" t="s">
-        <v>68</v>
-      </c>
-      <c r="L48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
         <v>155</v>
       </c>
-      <c r="B49" t="s">
-        <v>156</v>
-      </c>
       <c r="C49" t="n">
-        <v>1235678.0</v>
+        <v>7.758696626E9</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" t="s">
         <v>21</v>
-      </c>
-      <c r="J49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" t="s">
-        <v>68</v>
-      </c>
-      <c r="L49" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C50" t="n">
-        <v>6.610299962E9</v>
+        <v>8.268663905E9</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C51" t="n">
-        <v>3.347310021E9</v>
+        <v>9.199832769E9</v>
       </c>
       <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s">
-        <v>90</v>
-      </c>
-      <c r="I51" t="s">
-        <v>68</v>
-      </c>
-      <c r="J51" t="s">
-        <v>59</v>
-      </c>
       <c r="K51" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" t="s">
         <v>45</v>
-      </c>
-      <c r="M51" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52" t="n">
-        <v>7.6666666664E10</v>
+        <v>4.209217402E9</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L52" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" t="n">
-        <v>9.561360279E9</v>
+        <v>2.02092367E8</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L53" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M53" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C54" t="n">
-        <v>3.37622703E9</v>
+        <v>4.59671499E8</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
         <v>51</v>
       </c>
-      <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>44</v>
-      </c>
       <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s">
         <v>26</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" t="s">
         <v>45</v>
       </c>
-      <c r="J54" t="s">
-        <v>49</v>
-      </c>
-      <c r="K54" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54" t="s">
-        <v>20</v>
-      </c>
       <c r="M54" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" t="n">
-        <v>5.098446542E9</v>
+        <v>6.818147803E9</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L55" t="s">
         <v>19</v>
       </c>
-      <c r="I55" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" t="s">
-        <v>59</v>
-      </c>
-      <c r="L55" t="s">
-        <v>35</v>
-      </c>
       <c r="M55" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" t="n">
-        <v>5.222967804E9</v>
+        <v>1.607593709E9</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="L56" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" t="n">
-        <v>8.374335823E9</v>
+        <v>8.83193935E8</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="H57" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s">
         <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" t="n">
-        <v>4.113944048E9</v>
+        <v>6.171983581E9</v>
       </c>
       <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
         <v>18</v>
       </c>
-      <c r="E58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s">
-        <v>68</v>
-      </c>
-      <c r="L58" t="s">
-        <v>44</v>
-      </c>
       <c r="M58" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C59" t="n">
-        <v>8.92279582E9</v>
+        <v>5.276796343E9</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
         <v>35</v>
       </c>
-      <c r="H59" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
+        <v>49</v>
+      </c>
+      <c r="M59" t="s">
         <v>37</v>
-      </c>
-      <c r="J59" t="s">
-        <v>27</v>
-      </c>
-      <c r="K59" t="s">
-        <v>49</v>
-      </c>
-      <c r="L59" t="s">
-        <v>36</v>
-      </c>
-      <c r="M59" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>1.607593709E9</v>
+        <v>5.959702975E9</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M60" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C61" t="n">
-        <v>9.639897045E9</v>
+        <v>2.782961063E9</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K61" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="L61" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M61" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C62" t="n">
-        <v>5.806624791E9</v>
+        <v>4.658305145E9</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" t="s">
         <v>22</v>
       </c>
-      <c r="H62" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" t="s">
-        <v>59</v>
-      </c>
-      <c r="J62" t="s">
-        <v>71</v>
-      </c>
       <c r="K62" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C63" t="n">
-        <v>7.074098063E9</v>
+        <v>6.146747201E9</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" t="s">
         <v>26</v>
       </c>
-      <c r="F63" t="s">
-        <v>33</v>
-      </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L63" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C64" t="n">
-        <v>2.697207764E9</v>
+        <v>7.842346957E9</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="L64" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="M64" t="s">
         <v>49</v>
@@ -3585,1724 +3561,1724 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C65" t="n">
-        <v>7.544202614E9</v>
+        <v>2.546918729E9</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>61</v>
+      </c>
+      <c r="J65" t="s">
         <v>37</v>
       </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" t="s">
-        <v>71</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
       <c r="K65" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L65" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M65" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C66" t="n">
-        <v>2.372825541E9</v>
+        <v>8.587446864E9</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J66" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L66" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="M66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C67" t="n">
-        <v>2.400486031E9</v>
+        <v>3.308501071E9</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
         <v>37</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>15</v>
       </c>
-      <c r="J67" t="s">
-        <v>19</v>
-      </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L67" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C68" t="n">
-        <v>9.126817195E9</v>
+        <v>9.110537963E9</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>92</v>
+      </c>
+      <c r="K68" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" t="s">
         <v>23</v>
-      </c>
-      <c r="I68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J68" t="s">
-        <v>35</v>
-      </c>
-      <c r="K68" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M68" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C69" t="n">
-        <v>8.239638509E9</v>
+        <v>7.738747511E9</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" t="s">
         <v>23</v>
       </c>
-      <c r="K69" t="s">
-        <v>26</v>
-      </c>
       <c r="L69" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M69" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C70" t="n">
-        <v>9.04277701E9</v>
+        <v>4.6872392E7</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J70" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M70" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C71" t="n">
-        <v>4.572922001E9</v>
+        <v>9.587728487E9</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M71" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C72" t="n">
-        <v>6.52148356E8</v>
+        <v>4.22222225E8</v>
       </c>
       <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" t="s">
         <v>23</v>
       </c>
-      <c r="E72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K72" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M72" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C73" t="n">
-        <v>9.358082929E9</v>
+        <v>5.5555543241E10</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
+        <v>52</v>
+      </c>
+      <c r="L73" t="s">
         <v>18</v>
       </c>
-      <c r="L73" t="s">
-        <v>206</v>
-      </c>
       <c r="M73" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C74" t="n">
-        <v>2.027282182E9</v>
+        <v>4.089993778E9</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" t="s">
         <v>49</v>
       </c>
-      <c r="J74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" t="s">
-        <v>21</v>
-      </c>
       <c r="L74" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M74" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C75" t="n">
-        <v>6.329142944E9</v>
+        <v>5.907667106E9</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I75" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L75" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M75" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="C76" t="n">
-        <v>2.468089124E9</v>
+        <v>5.423124325E9</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>67</v>
+      </c>
+      <c r="J76" t="s">
         <v>26</v>
       </c>
-      <c r="G76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76" t="s">
-        <v>212</v>
-      </c>
-      <c r="J76" t="s">
-        <v>19</v>
-      </c>
       <c r="K76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L76" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M76" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C77" t="n">
-        <v>8.87215453E9</v>
+        <v>3.11111111E8</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
         <v>35</v>
       </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="L77" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="M77" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C78" t="n">
-        <v>8.329785894E9</v>
+        <v>6.90985969E9</v>
       </c>
       <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s">
         <v>22</v>
       </c>
-      <c r="E78" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" t="s">
         <v>16</v>
       </c>
-      <c r="G78" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s">
-        <v>35</v>
-      </c>
-      <c r="I78" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
         <v>22</v>
       </c>
-      <c r="K78" t="s">
-        <v>40</v>
-      </c>
-      <c r="L78" t="s">
-        <v>34</v>
-      </c>
       <c r="M78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C79" t="n">
-        <v>8.0128168E9</v>
+        <v>6.062298483E9</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H79" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K79" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M79" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C80" t="n">
-        <v>9.849198885E9</v>
+        <v>6.41400314E8</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K80" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="L80" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C81" t="n">
-        <v>9.276473889E9</v>
+        <v>2.899649184E9</v>
       </c>
       <c r="D81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" t="s">
         <v>20</v>
-      </c>
-      <c r="E81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" t="s">
-        <v>48</v>
-      </c>
-      <c r="K81" t="s">
-        <v>34</v>
-      </c>
-      <c r="L81" t="s">
-        <v>59</v>
-      </c>
-      <c r="M81" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C82" t="n">
-        <v>4.827999719E9</v>
+        <v>5.708797427E9</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="J82" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M82" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C83" t="n">
-        <v>5.318934199E9</v>
+        <v>1.9663322E7</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="I83" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="K83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M83" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C84" t="n">
-        <v>1.021344999E9</v>
+        <v>2.469163359E9</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L84" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M84" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.345271302E9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
         <v>230</v>
       </c>
-      <c r="B85" t="s">
+      <c r="G85" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85" t="s">
         <v>231</v>
       </c>
-      <c r="C85" t="n">
-        <v>1.840214615E9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" t="s">
-        <v>50</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="I85" t="s">
+        <v>49</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" t="s">
+        <v>37</v>
+      </c>
+      <c r="L85" t="s">
         <v>15</v>
       </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
-        <v>41</v>
-      </c>
-      <c r="I85" t="s">
-        <v>59</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="M85" t="s">
         <v>45</v>
-      </c>
-      <c r="K85" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" t="s">
-        <v>68</v>
-      </c>
-      <c r="M85" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" t="s">
         <v>232</v>
       </c>
-      <c r="B86" t="s">
-        <v>233</v>
-      </c>
       <c r="C86" t="n">
-        <v>5.557773333E9</v>
+        <v>3.354471084E9</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H86" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="K86" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L86" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M86" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" t="s">
         <v>234</v>
       </c>
-      <c r="B87" t="s">
-        <v>235</v>
-      </c>
       <c r="C87" t="n">
-        <v>1.336619565E9</v>
+        <v>9.807409876E9</v>
       </c>
       <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" t="s">
         <v>44</v>
       </c>
-      <c r="E87" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" t="s">
-        <v>16</v>
-      </c>
       <c r="I87" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="K87" t="s">
+        <v>67</v>
+      </c>
+      <c r="L87" t="s">
+        <v>38</v>
+      </c>
+      <c r="M87" t="s">
         <v>19</v>
-      </c>
-      <c r="L87" t="s">
-        <v>36</v>
-      </c>
-      <c r="M87" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="C88" t="n">
-        <v>2.468089124E9</v>
+        <v>8.194223807E9</v>
       </c>
       <c r="D88" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H88" t="s">
+        <v>61</v>
+      </c>
+      <c r="I88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" t="s">
         <v>44</v>
       </c>
-      <c r="I88" t="s">
-        <v>49</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
+        <v>42</v>
+      </c>
+      <c r="L88" t="s">
+        <v>38</v>
+      </c>
+      <c r="M88" t="s">
         <v>56</v>
-      </c>
-      <c r="K88" t="s">
-        <v>48</v>
-      </c>
-      <c r="L88" t="s">
-        <v>34</v>
-      </c>
-      <c r="M88" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C89" t="n">
-        <v>5.318934199E9</v>
+        <v>8.214326453E9</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s">
         <v>44</v>
       </c>
-      <c r="I89" t="s">
-        <v>44</v>
-      </c>
-      <c r="J89" t="s">
-        <v>21</v>
-      </c>
-      <c r="K89" t="s">
-        <v>59</v>
-      </c>
       <c r="L89" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M89" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C90" t="n">
-        <v>1248532.0</v>
+        <v>7.587237653E9</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J90" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M90" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C91" t="n">
-        <v>3.489653805E9</v>
+        <v>2.368379023E9</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
         <v>51</v>
       </c>
-      <c r="J91" t="s">
-        <v>50</v>
-      </c>
       <c r="K91" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L91" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M91" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C92" t="n">
-        <v>7.767245151E9</v>
+        <v>4.22222225E8</v>
       </c>
       <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
         <v>37</v>
       </c>
-      <c r="E92" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" t="s">
-        <v>33</v>
-      </c>
-      <c r="G92" t="s">
-        <v>40</v>
-      </c>
       <c r="H92" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J92" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="L92" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M92" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
         <v>242</v>
       </c>
-      <c r="B93" t="s">
-        <v>243</v>
-      </c>
       <c r="C93" t="n">
-        <v>7.758696626E9</v>
+        <v>9.99999999E8</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H93" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K93" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="L93" t="s">
         <v>36</v>
       </c>
       <c r="M93" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
         <v>244</v>
       </c>
-      <c r="B94" t="s">
-        <v>245</v>
-      </c>
       <c r="C94" t="n">
-        <v>1.393150169E9</v>
+        <v>5.557773333E9</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I94" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K94" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M94" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="C95" t="n">
-        <v>1.234522222E9</v>
+        <v>9.587728487E9</v>
       </c>
       <c r="D95" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J95" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L95" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C96" t="n">
-        <v>8.92279582E9</v>
+        <v>6.6276636E7</v>
       </c>
       <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
         <v>22</v>
       </c>
-      <c r="E96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" t="s">
-        <v>36</v>
-      </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I96" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J96" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K96" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L96" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M96" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" t="s">
         <v>248</v>
       </c>
-      <c r="B97" t="s">
-        <v>249</v>
-      </c>
       <c r="C97" t="n">
-        <v>5.683447845E9</v>
+        <v>2.55309402E9</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J97" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" t="s">
         <v>51</v>
       </c>
-      <c r="K97" t="s">
-        <v>49</v>
-      </c>
-      <c r="L97" t="s">
-        <v>37</v>
-      </c>
       <c r="M97" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>249</v>
+      </c>
+      <c r="B98" t="s">
         <v>250</v>
       </c>
-      <c r="B98" t="s">
-        <v>251</v>
-      </c>
       <c r="C98" t="n">
-        <v>6.791667733E9</v>
+        <v>4.345530047E9</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K98" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L98" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M98" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>251</v>
+      </c>
+      <c r="B99" t="s">
         <v>252</v>
       </c>
-      <c r="B99" t="s">
-        <v>253</v>
-      </c>
       <c r="C99" t="n">
-        <v>7.967716533E9</v>
+        <v>6.3852196E8</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="K99" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L99" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M99" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" t="s">
         <v>254</v>
       </c>
-      <c r="B100" t="s">
-        <v>255</v>
-      </c>
       <c r="C100" t="n">
-        <v>2.449754883E9</v>
+        <v>7.5978863E7</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I100" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J100" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K100" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M100" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" t="s">
         <v>256</v>
       </c>
-      <c r="B101" t="s">
-        <v>257</v>
-      </c>
       <c r="C101" t="n">
-        <v>7.294661549E9</v>
+        <v>7.653671888E9</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" t="s">
+        <v>44</v>
+      </c>
+      <c r="J101" t="s">
+        <v>67</v>
+      </c>
+      <c r="K101" t="s">
+        <v>44</v>
+      </c>
+      <c r="L101" t="s">
+        <v>15</v>
+      </c>
+      <c r="M101" t="s">
         <v>20</v>
-      </c>
-      <c r="F101" t="s">
-        <v>56</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" t="s">
-        <v>20</v>
-      </c>
-      <c r="I101" t="s">
-        <v>25</v>
-      </c>
-      <c r="J101" t="s">
-        <v>34</v>
-      </c>
-      <c r="K101" t="s">
-        <v>26</v>
-      </c>
-      <c r="L101" t="s">
-        <v>59</v>
-      </c>
-      <c r="M101" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>257</v>
+      </c>
+      <c r="B102" t="s">
         <v>258</v>
       </c>
-      <c r="B102" t="s">
-        <v>259</v>
-      </c>
       <c r="C102" t="n">
-        <v>1.821770758E9</v>
+        <v>2.499587511E9</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H102" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I102" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J102" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="K102" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L102" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M102" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" t="s">
         <v>260</v>
       </c>
-      <c r="B103" t="s">
-        <v>261</v>
-      </c>
       <c r="C103" t="n">
-        <v>3.411953237E9</v>
+        <v>1.966233706E9</v>
       </c>
       <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103" t="s">
+        <v>67</v>
+      </c>
+      <c r="K103" t="s">
+        <v>21</v>
+      </c>
+      <c r="L103" t="s">
         <v>22</v>
       </c>
-      <c r="E103" t="s">
-        <v>33</v>
-      </c>
-      <c r="F103" t="s">
-        <v>262</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" t="s">
-        <v>40</v>
-      </c>
-      <c r="I103" t="s">
-        <v>28</v>
-      </c>
-      <c r="J103" t="s">
-        <v>74</v>
-      </c>
-      <c r="K103" t="s">
-        <v>25</v>
-      </c>
-      <c r="L103" t="s">
-        <v>48</v>
-      </c>
       <c r="M103" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C104" t="n">
-        <v>6.432272518E9</v>
+        <v>9.991111666E9</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H104" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I104" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="L104" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M104" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9.808789407E9</v>
+      </c>
+      <c r="D105" t="s">
         <v>265</v>
       </c>
-      <c r="B105" t="s">
-        <v>266</v>
-      </c>
-      <c r="C105" t="n">
-        <v>5.513555756E9</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" t="s">
         <v>16</v>
       </c>
-      <c r="E105" t="s">
-        <v>30</v>
-      </c>
-      <c r="F105" t="s">
-        <v>55</v>
-      </c>
-      <c r="G105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H105" t="s">
-        <v>25</v>
-      </c>
-      <c r="I105" t="s">
-        <v>23</v>
-      </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="K105" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L105" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M105" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>266</v>
+      </c>
+      <c r="B106" t="s">
         <v>267</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="n">
+        <v>6.67159995E9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>61</v>
+      </c>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" t="s">
+        <v>45</v>
+      </c>
+      <c r="M106" t="s">
         <v>268</v>
-      </c>
-      <c r="C106" t="n">
-        <v>6.242667602E9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G106" t="s">
-        <v>62</v>
-      </c>
-      <c r="H106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I106" t="s">
-        <v>27</v>
-      </c>
-      <c r="J106" t="s">
-        <v>30</v>
-      </c>
-      <c r="K106" t="s">
-        <v>40</v>
-      </c>
-      <c r="L106" t="s">
-        <v>20</v>
-      </c>
-      <c r="M106" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="107">
@@ -5313,570 +5289,570 @@
         <v>270</v>
       </c>
       <c r="C107" t="n">
-        <v>7.567326699E9</v>
+        <v>8.25871305E9</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H107" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K107" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="L107" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M107" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" t="s">
         <v>271</v>
       </c>
-      <c r="B108" t="s">
-        <v>272</v>
-      </c>
       <c r="C108" t="n">
-        <v>9.143057836E9</v>
+        <v>4.26731005E9</v>
       </c>
       <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>56</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" t="s">
+        <v>46</v>
+      </c>
+      <c r="L108" t="s">
+        <v>39</v>
+      </c>
+      <c r="M108" t="s">
         <v>17</v>
-      </c>
-      <c r="E108" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" t="s">
-        <v>48</v>
-      </c>
-      <c r="H108" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" t="s">
-        <v>36</v>
-      </c>
-      <c r="J108" t="s">
-        <v>34</v>
-      </c>
-      <c r="K108" t="s">
-        <v>90</v>
-      </c>
-      <c r="L108" t="s">
-        <v>93</v>
-      </c>
-      <c r="M108" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" t="s">
         <v>273</v>
       </c>
-      <c r="B109" t="s">
-        <v>274</v>
-      </c>
       <c r="C109" t="n">
-        <v>4.209217402E9</v>
+        <v>8.302107802E9</v>
       </c>
       <c r="D109" t="s">
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109" t="s">
+        <v>56</v>
+      </c>
+      <c r="I109" t="s">
         <v>17</v>
       </c>
-      <c r="G109" t="s">
-        <v>62</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="J109" t="s">
         <v>44</v>
-      </c>
-      <c r="I109" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" t="s">
-        <v>49</v>
       </c>
       <c r="K109" t="s">
         <v>20</v>
       </c>
       <c r="L109" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="M109" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" t="s">
         <v>275</v>
       </c>
-      <c r="B110" t="s">
-        <v>276</v>
-      </c>
       <c r="C110" t="n">
-        <v>4.595207621E9</v>
+        <v>8.329785894E9</v>
       </c>
       <c r="D110" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E110" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G110" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J110" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="K110" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="M110" t="s">
-        <v>277</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C111" t="n">
-        <v>5.316789403E9</v>
+        <v>1.2436743E7</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>44</v>
       </c>
       <c r="H111" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I111" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="J111" t="s">
         <v>16</v>
       </c>
       <c r="K111" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L111" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M111" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>5.118269217E9</v>
+        <v>4.113944048E9</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G112" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I112" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J112" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K112" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L112" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M112" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C113" t="n">
-        <v>5.242359317E9</v>
+        <v>2.936141836E9</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="G113" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H113" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="I113" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J113" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K113" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L113" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="M113" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B114" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C114" t="n">
-        <v>7.725162245E9</v>
+        <v>8.87215453E9</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H114" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" t="s">
+        <v>50</v>
+      </c>
+      <c r="L114" t="s">
         <v>36</v>
       </c>
-      <c r="J114" t="s">
-        <v>71</v>
-      </c>
-      <c r="K114" t="s">
-        <v>286</v>
-      </c>
-      <c r="L114" t="s">
-        <v>34</v>
-      </c>
       <c r="M114" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="C115" t="n">
-        <v>4.093684195E9</v>
+        <v>5.5555543241E10</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" t="s">
+        <v>23</v>
+      </c>
+      <c r="J115" t="s">
+        <v>43</v>
+      </c>
+      <c r="K115" t="s">
         <v>20</v>
       </c>
-      <c r="I115" t="s">
-        <v>48</v>
-      </c>
-      <c r="J115" t="s">
-        <v>49</v>
-      </c>
-      <c r="K115" t="s">
-        <v>23</v>
-      </c>
       <c r="L115" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="M115" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B116" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C116" t="n">
-        <v>9.689211019E9</v>
+        <v>9.011867394E9</v>
       </c>
       <c r="D116" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E116" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H116" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I116" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J116" t="s">
+        <v>35</v>
+      </c>
+      <c r="K116" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116" t="s">
         <v>30</v>
       </c>
-      <c r="K116" t="s">
-        <v>59</v>
-      </c>
-      <c r="L116" t="s">
-        <v>18</v>
-      </c>
       <c r="M116" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C117" t="n">
-        <v>8.085449784E9</v>
+        <v>8.728068935E9</v>
       </c>
       <c r="D117" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K117" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="L117" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="M117" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B118" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C118" t="n">
-        <v>8.728068935E9</v>
+        <v>3.863210851E9</v>
       </c>
       <c r="D118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E118" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J118" t="s">
         <v>18</v>
       </c>
       <c r="K118" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L118" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M118" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="C119" t="n">
-        <v>1.904545724E9</v>
+        <v>9.110537963E9</v>
       </c>
       <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
         <v>62</v>
       </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="I119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" t="s">
         <v>16</v>
       </c>
-      <c r="G119" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" t="s">
-        <v>30</v>
-      </c>
-      <c r="I119" t="s">
-        <v>71</v>
-      </c>
-      <c r="J119" t="s">
-        <v>49</v>
-      </c>
       <c r="K119" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L119" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M119" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C120" t="n">
-        <v>5.907667106E9</v>
+        <v>8.40697946E9</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H120" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I120" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K120" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="L120" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M120" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/studentPreferences120.xlsx
+++ b/src/main/resources/studentPreferences120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="289">
   <si>
     <t>First Name</t>
   </si>
@@ -53,772 +53,700 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Bing</t>
-  </si>
-  <si>
-    <t>Gibbens</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Thyng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>writing Russian novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The Art of War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carolus</t>
+  </si>
+  <si>
+    <t>Livezley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Karlie</t>
+  </si>
+  <si>
+    <t>Montel</t>
+  </si>
+  <si>
+    <t>protecting criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War And Peace and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Collinwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Calida</t>
+  </si>
+  <si>
+    <t>Leatherborrow</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Dagon-worshipping societies</t>
   </si>
   <si>
     <t xml:space="preserve"> Movies and the Cthulu mythos</t>
   </si>
   <si>
-    <t>developing military strategies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Modern military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies</t>
+    <t>Boxing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Caz</t>
+  </si>
+  <si>
+    <t>Fulker</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harri</t>
+  </si>
+  <si>
+    <t>Pellamonuten</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Clarette</t>
+  </si>
+  <si>
+    <t>Harriman</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Klejin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> representing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Enid</t>
+  </si>
+  <si>
+    <t>Turfrey</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kermy</t>
+  </si>
+  <si>
+    <t>McQuillen</t>
+  </si>
+  <si>
+    <t>Marchelle</t>
+  </si>
+  <si>
+    <t>Weaver</t>
   </si>
   <si>
     <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
   </si>
   <si>
-    <t>Modern military history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Surrealism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kienan</t>
-  </si>
-  <si>
-    <t>Jillett</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gerry</t>
-  </si>
-  <si>
-    <t>Leidecker</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Political Cartoons and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cristionna</t>
-  </si>
-  <si>
-    <t>Gorrick</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lyndell</t>
-  </si>
-  <si>
-    <t>Bjorkan</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>drawing political cartoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rochester</t>
-  </si>
-  <si>
-    <t>Forlong</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
+    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Darrin</t>
+  </si>
+  <si>
+    <t>Bindley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Pru</t>
+  </si>
+  <si>
+    <t>Tappor</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>McBrearty</t>
+  </si>
+  <si>
+    <t>Emili</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>directing action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>McHugh</t>
+  </si>
+  <si>
+    <t>Coraline</t>
+  </si>
+  <si>
+    <t>Witty</t>
   </si>
   <si>
     <t>Simon</t>
   </si>
   <si>
-    <t>Hulle</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Nolly</t>
-  </si>
-  <si>
-    <t>Popescu</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Killie</t>
-  </si>
-  <si>
-    <t>Dinjes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kristoffer</t>
-  </si>
-  <si>
-    <t>Kitlee</t>
-  </si>
-  <si>
-    <t>The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ag</t>
-  </si>
-  <si>
-    <t>Robke</t>
-  </si>
-  <si>
-    <t>Devland</t>
-  </si>
-  <si>
-    <t>Magnus</t>
-  </si>
-  <si>
-    <t>disappointing the family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>Varley</t>
-  </si>
-  <si>
-    <t>fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Maia</t>
-  </si>
-  <si>
-    <t>Scawen</t>
-  </si>
-  <si>
-    <t>painting surreal pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Lewsley</t>
+    <t>Georgius</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Tabbernor</t>
+  </si>
+  <si>
+    <t>Dodi</t>
+  </si>
+  <si>
+    <t>Gauch</t>
+  </si>
+  <si>
+    <t>British politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Harlin</t>
+  </si>
+  <si>
+    <t>McMichael</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>Willmetts</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gilda</t>
+  </si>
+  <si>
+    <t>Christopherson</t>
+  </si>
+  <si>
+    <t>Franzen</t>
+  </si>
+  <si>
+    <t>McKelvey</t>
+  </si>
+  <si>
+    <t>Kinsley</t>
+  </si>
+  <si>
+    <t>Josefovic</t>
+  </si>
+  <si>
+    <t>Jayson</t>
+  </si>
+  <si>
+    <t>Marcq</t>
+  </si>
+  <si>
+    <t>Marvel Comics. Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tandi</t>
+  </si>
+  <si>
+    <t>Keesman</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Middlewick</t>
+  </si>
+  <si>
+    <t>Lalo</t>
+  </si>
+  <si>
+    <t>MacDonald</t>
+  </si>
+  <si>
+    <t>Garek</t>
+  </si>
+  <si>
+    <t>Vines</t>
+  </si>
+  <si>
+    <t>Ronny</t>
+  </si>
+  <si>
+    <t>Moylane</t>
+  </si>
+  <si>
+    <t>Wit</t>
+  </si>
+  <si>
+    <t>Bentje</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Benford</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
+    <t>Gowing</t>
+  </si>
+  <si>
+    <t>Mordy</t>
+  </si>
+  <si>
+    <t>Wallworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gerick</t>
+  </si>
+  <si>
+    <t>Arnecke</t>
+  </si>
+  <si>
+    <t>Stu</t>
+  </si>
+  <si>
+    <t>Barrick</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Barrowcliff</t>
+  </si>
+  <si>
+    <t>Wilow</t>
+  </si>
+  <si>
+    <t>Favela</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Tull</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Shanta</t>
+  </si>
+  <si>
+    <t>Harbach</t>
+  </si>
+  <si>
+    <t>Claudelle</t>
+  </si>
+  <si>
+    <t>Lyenyng</t>
+  </si>
+  <si>
+    <t>Sergent</t>
+  </si>
+  <si>
+    <t>aManger</t>
+  </si>
+  <si>
+    <t>Raoul</t>
+  </si>
+  <si>
+    <t>Franscioni</t>
+  </si>
+  <si>
+    <t>Ignace</t>
+  </si>
+  <si>
+    <t>Foulds</t>
+  </si>
+  <si>
+    <t>Tully</t>
+  </si>
+  <si>
+    <t>Urpeth</t>
+  </si>
+  <si>
+    <t>Electra</t>
+  </si>
+  <si>
+    <t>Hazelton</t>
+  </si>
+  <si>
+    <t>Cosmo</t>
+  </si>
+  <si>
+    <t>Ubsdall</t>
+  </si>
+  <si>
+    <t>Minerva</t>
+  </si>
+  <si>
+    <t>McNeish</t>
+  </si>
+  <si>
+    <t>Randee</t>
+  </si>
+  <si>
+    <t>Mateescu</t>
+  </si>
+  <si>
+    <t>Sherye</t>
+  </si>
+  <si>
+    <t>Hayers</t>
+  </si>
+  <si>
+    <t>Bronnie</t>
+  </si>
+  <si>
+    <t>Osgar</t>
+  </si>
+  <si>
+    <t>Randene</t>
+  </si>
+  <si>
+    <t>Skerman</t>
+  </si>
+  <si>
+    <t>Micheil</t>
+  </si>
+  <si>
+    <t>Jersch</t>
+  </si>
+  <si>
+    <t>Theodoric</t>
+  </si>
+  <si>
+    <t>Blain</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Elphick</t>
   </si>
   <si>
     <t>Sunny</t>
   </si>
   <si>
-    <t>Espinoy</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Benedict</t>
-  </si>
-  <si>
-    <t>Avraam</t>
-  </si>
-  <si>
-    <t>Hussein</t>
-  </si>
-  <si>
-    <t>Ferrarini</t>
-  </si>
-  <si>
-    <t>Edith</t>
-  </si>
-  <si>
-    <t>Mully</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Abrahan</t>
-  </si>
-  <si>
-    <t>Harley</t>
-  </si>
-  <si>
-    <t>Kessiah</t>
-  </si>
-  <si>
-    <t>Francescozzi</t>
-  </si>
-  <si>
-    <t>Marchelle</t>
-  </si>
-  <si>
-    <t>Weaver</t>
-  </si>
-  <si>
-    <t>Ulrike</t>
-  </si>
-  <si>
-    <t>Gelly</t>
-  </si>
-  <si>
-    <t>24 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Trescha</t>
-  </si>
-  <si>
-    <t>Stouther</t>
-  </si>
-  <si>
-    <t>Jocelyn</t>
-  </si>
-  <si>
-    <t>Labet</t>
-  </si>
-  <si>
-    <t>Addie</t>
-  </si>
-  <si>
-    <t>Somerville</t>
-  </si>
-  <si>
-    <t>Jodi</t>
-  </si>
-  <si>
-    <t>Franzetti</t>
-  </si>
-  <si>
-    <t>Darrin</t>
-  </si>
-  <si>
-    <t>Bindley</t>
-  </si>
-  <si>
-    <t>Boutell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dating supermodels in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lorraine</t>
-  </si>
-  <si>
-    <t>Finker</t>
-  </si>
-  <si>
-    <t>Doonesbury and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Horace</t>
-  </si>
-  <si>
-    <t>Haswell</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Cindelyn</t>
-  </si>
-  <si>
-    <t>Cropper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Silvan</t>
-  </si>
-  <si>
-    <t>Macellar</t>
-  </si>
-  <si>
-    <t>Tate</t>
-  </si>
-  <si>
-    <t>Marquot</t>
-  </si>
-  <si>
-    <t>Aeriela</t>
-  </si>
-  <si>
-    <t>Goodayle</t>
-  </si>
-  <si>
-    <t>Bernie</t>
-  </si>
-  <si>
-    <t>Mynard</t>
-  </si>
-  <si>
-    <t>Shalom</t>
-  </si>
-  <si>
-    <t>Donneely</t>
-  </si>
-  <si>
-    <t>Emogene</t>
-  </si>
-  <si>
-    <t>Hannum</t>
-  </si>
-  <si>
-    <t>Wit</t>
-  </si>
-  <si>
-    <t>Bentje</t>
-  </si>
-  <si>
-    <t>Cal</t>
-  </si>
-  <si>
-    <t>Keyse</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Benford</t>
-  </si>
-  <si>
-    <t>Abbye</t>
-  </si>
-  <si>
-    <t>Kaines</t>
-  </si>
-  <si>
-    <t>Cobb</t>
-  </si>
-  <si>
-    <t>Bossel</t>
-  </si>
-  <si>
-    <t>Georgette</t>
-  </si>
-  <si>
-    <t>Nobes</t>
-  </si>
-  <si>
-    <t>Roshelle</t>
-  </si>
-  <si>
-    <t>Plampin</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Webben</t>
-  </si>
-  <si>
-    <t>Val</t>
-  </si>
-  <si>
-    <t>Coltherd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>Lowrey</t>
-  </si>
-  <si>
-    <t>Jeannine</t>
-  </si>
-  <si>
-    <t>Munkley</t>
-  </si>
-  <si>
-    <t>Torrey</t>
-  </si>
-  <si>
-    <t>Hagerty</t>
-  </si>
-  <si>
-    <t>Spenser</t>
-  </si>
-  <si>
-    <t>Pichmann</t>
-  </si>
-  <si>
-    <t>chasing terrorists in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jordana</t>
-  </si>
-  <si>
-    <t>MacDonagh</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>Felstead</t>
-  </si>
-  <si>
-    <t>Wolfy</t>
-  </si>
-  <si>
-    <t>Tuffs</t>
-  </si>
-  <si>
-    <t>Emili</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Bastian</t>
-  </si>
-  <si>
-    <t>Paulisch</t>
-  </si>
-  <si>
-    <t>Rosalyn</t>
-  </si>
-  <si>
-    <t>Duthy</t>
-  </si>
-  <si>
-    <t>Shara</t>
-  </si>
-  <si>
-    <t>Fewlass</t>
-  </si>
-  <si>
-    <t>Cointon</t>
-  </si>
-  <si>
-    <t>Keysel</t>
-  </si>
-  <si>
-    <t>Ase</t>
-  </si>
-  <si>
-    <t>Rosellini</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Doug</t>
-  </si>
-  <si>
-    <t>Fosher</t>
-  </si>
-  <si>
-    <t>Alley</t>
-  </si>
-  <si>
-    <t>Stapley</t>
-  </si>
-  <si>
-    <t>Eilis</t>
-  </si>
-  <si>
-    <t>Gartin</t>
-  </si>
-  <si>
-    <t>Aldric</t>
-  </si>
-  <si>
-    <t>Dalzell</t>
-  </si>
-  <si>
-    <t>Jerrylee</t>
-  </si>
-  <si>
-    <t>Siflet</t>
-  </si>
-  <si>
-    <t>Marie</t>
-  </si>
-  <si>
-    <t>Canellas</t>
-  </si>
-  <si>
-    <t>Coreen</t>
-  </si>
-  <si>
-    <t>Preshous</t>
-  </si>
-  <si>
-    <t>Danyelle</t>
-  </si>
-  <si>
-    <t>Southeran</t>
-  </si>
-  <si>
-    <t>Alford</t>
-  </si>
-  <si>
-    <t>Boncore</t>
-  </si>
-  <si>
-    <t>Sheeree</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Emelina</t>
-  </si>
-  <si>
-    <t>Crux</t>
-  </si>
-  <si>
-    <t>Mohandis</t>
-  </si>
-  <si>
-    <t>Arendt</t>
-  </si>
-  <si>
-    <t>Martino</t>
-  </si>
-  <si>
-    <t>Slot</t>
-  </si>
-  <si>
-    <t>Sherye</t>
-  </si>
-  <si>
-    <t>Hayers</t>
-  </si>
-  <si>
-    <t>Livvie</t>
-  </si>
-  <si>
-    <t>Harmour</t>
-  </si>
-  <si>
-    <t>Karlene</t>
-  </si>
-  <si>
-    <t>McJerrow</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Frunks</t>
-  </si>
-  <si>
-    <t>Raoul</t>
-  </si>
-  <si>
-    <t>Brunskill</t>
-  </si>
-  <si>
-    <t>Amie</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Henrie</t>
-  </si>
-  <si>
-    <t>Marron</t>
-  </si>
-  <si>
-    <t>Sherry</t>
-  </si>
-  <si>
-    <t>McCorkell</t>
-  </si>
-  <si>
-    <t>Georgius</t>
-  </si>
-  <si>
-    <t>Josi</t>
-  </si>
-  <si>
-    <t>Spinney</t>
-  </si>
-  <si>
-    <t>Padgett</t>
-  </si>
-  <si>
-    <t>Kellog</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>Livsey</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Scot</t>
-  </si>
-  <si>
-    <t>Kohrsen</t>
-  </si>
-  <si>
-    <t>Malvin</t>
-  </si>
-  <si>
-    <t>Storcke</t>
-  </si>
-  <si>
-    <t>Vanda</t>
-  </si>
-  <si>
-    <t>de Courcy</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Vladamir</t>
-  </si>
-  <si>
-    <t>Kilkenny</t>
-  </si>
-  <si>
-    <t>Rodney</t>
-  </si>
-  <si>
-    <t>Tames</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Milty</t>
-  </si>
-  <si>
-    <t>Sommerfeld</t>
-  </si>
-  <si>
-    <t>Euell</t>
-  </si>
-  <si>
-    <t>Esbrook</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sydel</t>
-  </si>
-  <si>
-    <t>Poyner</t>
-  </si>
-  <si>
-    <t>Joella</t>
-  </si>
-  <si>
-    <t>Sneezem</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Judkin</t>
-  </si>
-  <si>
-    <t>Felike</t>
-  </si>
-  <si>
-    <t>Slimings</t>
-  </si>
-  <si>
-    <t>Reiko</t>
-  </si>
-  <si>
-    <t>Rivenzon</t>
-  </si>
-  <si>
-    <t>Jule</t>
-  </si>
-  <si>
-    <t>Bullan</t>
+    <t>Matushevich</t>
+  </si>
+  <si>
+    <t>Everard</t>
+  </si>
+  <si>
+    <t>Jansky</t>
+  </si>
+  <si>
+    <t>Suki</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>Curt</t>
+  </si>
+  <si>
+    <t>Pesticcio</t>
+  </si>
+  <si>
+    <t>Mile</t>
+  </si>
+  <si>
+    <t>Nutbeam</t>
+  </si>
+  <si>
+    <t>Josie</t>
+  </si>
+  <si>
+    <t>Ewbanks</t>
+  </si>
+  <si>
+    <t>Ailsun</t>
+  </si>
+  <si>
+    <t>Pettecrew</t>
+  </si>
+  <si>
+    <t>waiting for a hero in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ruthann</t>
+  </si>
+  <si>
+    <t>MacConnal</t>
+  </si>
+  <si>
+    <t>Ric</t>
+  </si>
+  <si>
+    <t>Kinnett</t>
+  </si>
+  <si>
+    <t>the Cold War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Amalia</t>
+  </si>
+  <si>
+    <t>Seiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jeffie</t>
+  </si>
+  <si>
+    <t>Eddleston</t>
+  </si>
+  <si>
+    <t>Sybyl</t>
+  </si>
+  <si>
+    <t>Aldiss</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Cruikshank</t>
+  </si>
+  <si>
+    <t>Marianne</t>
+  </si>
+  <si>
+    <t>Embra</t>
+  </si>
+  <si>
+    <t>Thaxter</t>
+  </si>
+  <si>
+    <t>Scadding</t>
+  </si>
+  <si>
+    <t>Shae</t>
+  </si>
+  <si>
+    <t>Gamlen</t>
+  </si>
+  <si>
+    <t>Hy</t>
+  </si>
+  <si>
+    <t>Stook</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Callf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Fran</t>
+  </si>
+  <si>
+    <t>Iacopini</t>
+  </si>
+  <si>
+    <t>Nap</t>
+  </si>
+  <si>
+    <t>Jirzik</t>
+  </si>
+  <si>
+    <t>Burk</t>
+  </si>
+  <si>
+    <t>Haydney</t>
+  </si>
+  <si>
+    <t>Grover</t>
+  </si>
+  <si>
+    <t>Whittingham</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Gillian</t>
+  </si>
+  <si>
+    <t>Egor</t>
+  </si>
+  <si>
+    <t>Gottschalk</t>
+  </si>
+  <si>
+    <t>Farra</t>
+  </si>
+  <si>
+    <t>Muzzollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Bidgod</t>
+  </si>
+  <si>
+    <t>Vilma</t>
+  </si>
+  <si>
+    <t>Chastney</t>
+  </si>
+  <si>
+    <t>Lauritz</t>
+  </si>
+  <si>
+    <t>Holton</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Ewins</t>
   </si>
   <si>
     <t>Anabella</t>
@@ -827,70 +755,130 @@
     <t>Sabbin</t>
   </si>
   <si>
-    <t>the Motor industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Averell</t>
-  </si>
-  <si>
-    <t>Kelloch</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Abbie</t>
-  </si>
-  <si>
-    <t>Slite</t>
-  </si>
-  <si>
-    <t>Beverie</t>
-  </si>
-  <si>
-    <t>Loosely</t>
-  </si>
-  <si>
-    <t>Shayne</t>
-  </si>
-  <si>
-    <t>Sedger</t>
-  </si>
-  <si>
-    <t>Lorant</t>
-  </si>
-  <si>
-    <t>Ilyinykh</t>
-  </si>
-  <si>
-    <t>Mortimer</t>
-  </si>
-  <si>
-    <t>McGuffog</t>
-  </si>
-  <si>
-    <t>Boyd</t>
-  </si>
-  <si>
-    <t>Verman</t>
-  </si>
-  <si>
-    <t>Ivy</t>
-  </si>
-  <si>
-    <t>Fetterplace</t>
-  </si>
-  <si>
-    <t>El</t>
-  </si>
-  <si>
-    <t>Dufaire</t>
-  </si>
-  <si>
-    <t>Harri</t>
-  </si>
-  <si>
-    <t>Pellamonuten</t>
+    <t>Natalina</t>
+  </si>
+  <si>
+    <t>Lalevee</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Balchin</t>
+  </si>
+  <si>
+    <t>Emile</t>
+  </si>
+  <si>
+    <t>Mounch</t>
+  </si>
+  <si>
+    <t>Cheri</t>
+  </si>
+  <si>
+    <t>Eversley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Tezure</t>
+  </si>
+  <si>
+    <t>Abba</t>
+  </si>
+  <si>
+    <t>Stops</t>
+  </si>
+  <si>
+    <t>Hansiain</t>
+  </si>
+  <si>
+    <t>Newvill</t>
+  </si>
+  <si>
+    <t>Artair</t>
+  </si>
+  <si>
+    <t>Napleton</t>
+  </si>
+  <si>
+    <t>Shamus</t>
+  </si>
+  <si>
+    <t>Batchelar</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>O'Fallone</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Ferencz</t>
+  </si>
+  <si>
+    <t>Skylar</t>
+  </si>
+  <si>
+    <t>Midner</t>
+  </si>
+  <si>
+    <t>Corette</t>
+  </si>
+  <si>
+    <t>Dumblton</t>
+  </si>
+  <si>
+    <t>Amandie</t>
+  </si>
+  <si>
+    <t>Areles</t>
+  </si>
+  <si>
+    <t>Ivette</t>
+  </si>
+  <si>
+    <t>Presdee</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Abrahamoff</t>
+  </si>
+  <si>
+    <t>Craggie</t>
+  </si>
+  <si>
+    <t>Hamner</t>
+  </si>
+  <si>
+    <t>searching for a new world in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bibi</t>
+  </si>
+  <si>
+    <t>Drain</t>
+  </si>
+  <si>
+    <t>Emmi</t>
+  </si>
+  <si>
+    <t>Tremmel</t>
+  </si>
+  <si>
+    <t>Branden</t>
+  </si>
+  <si>
+    <t>Gilsthorpe</t>
   </si>
 </sst>
 </file>
@@ -943,43 +931,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2.082785671E9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -990,447 +978,447 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>5.096543236E9</v>
+        <v>2.082785671E9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>5.096543236E9</v>
+        <v>1235678.0</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>2.5345345345E10</v>
+        <v>2.323413259E9</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>4.161399429E9</v>
+        <v>4.116113664E9</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>1.877427952E9</v>
+        <v>4.399159199E9</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>2.251555373E9</v>
+        <v>4.350742591E9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
-        <v>2.5345345345E10</v>
+        <v>1.393150169E9</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="n">
-        <v>7.160571579E9</v>
+        <v>5.028857913E9</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" t="n">
-        <v>6.181590502E9</v>
+        <v>6.26071219E9</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.778389146E9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="n">
-        <v>9.89939853E9</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
-        <v>6.171983581E9</v>
+        <v>1.859925444E9</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1441,157 +1429,157 @@
         <v>75</v>
       </c>
       <c r="C13" t="n">
-        <v>9.304063367E9</v>
+        <v>2.075366384E9</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
-        <v>1.948039071E9</v>
+        <v>3.703391914E9</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" t="n">
-        <v>1.41692063E9</v>
+        <v>9.980292574E9</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>3.412318693E9</v>
+        <v>1496062.0</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M16" t="s">
         <v>37</v>
@@ -1599,125 +1587,125 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
-        <v>5.622583191E9</v>
+        <v>8.874920103E9</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="n">
-        <v>8.265877491E9</v>
+        <v>2.936141836E9</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>9.679861803E9</v>
+        <v>2.888353386E9</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1728,37 +1716,37 @@
         <v>95</v>
       </c>
       <c r="C20" t="n">
-        <v>2.248538607E9</v>
+        <v>2.879212847E9</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" t="s">
         <v>76</v>
-      </c>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1769,37 +1757,37 @@
         <v>97</v>
       </c>
       <c r="C21" t="n">
-        <v>8.606372448E9</v>
+        <v>2.49388484E9</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
         <v>23</v>
       </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>50</v>
-      </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1810,78 +1798,78 @@
         <v>99</v>
       </c>
       <c r="C22" t="n">
-        <v>4.261091566E9</v>
+        <v>9.78189718E9</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="n">
+        <v>6.31505229E9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
         <v>102</v>
       </c>
-      <c r="C23" t="n">
-        <v>3.534342938E9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1892,37 +1880,37 @@
         <v>104</v>
       </c>
       <c r="C24" t="n">
-        <v>9.104858583E9</v>
+        <v>6.28011824E9</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -1933,78 +1921,78 @@
         <v>106</v>
       </c>
       <c r="C25" t="n">
-        <v>2.075366384E9</v>
+        <v>6.984483185E9</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" t="n">
-        <v>8.83193935E8</v>
+        <v>6.989355369E9</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -2015,37 +2003,37 @@
         <v>111</v>
       </c>
       <c r="C27" t="n">
-        <v>2.695874909E9</v>
+        <v>8.470313807E9</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
         <v>34</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -2056,37 +2044,37 @@
         <v>113</v>
       </c>
       <c r="C28" t="n">
-        <v>5.511271644E9</v>
+        <v>1.821770758E9</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -2097,324 +2085,324 @@
         <v>115</v>
       </c>
       <c r="C29" t="n">
-        <v>4.089993778E9</v>
+        <v>4.390228491E9</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" t="n">
-        <v>1.3556753E7</v>
+        <v>6.52148356E8</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C31" t="n">
-        <v>3.703391914E9</v>
+        <v>4.01197192E9</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C32" t="n">
-        <v>5.374090424E9</v>
+        <v>8.40697946E9</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C33" t="n">
-        <v>2.248538607E9</v>
+        <v>5.995747437E9</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="s">
-        <v>22</v>
-      </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" t="n">
-        <v>1.56796869E9</v>
+        <v>1.866119923E9</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" t="s">
         <v>22</v>
       </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C35" t="n">
-        <v>3.383884545E9</v>
+        <v>3.427544161E9</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s">
         <v>18</v>
       </c>
-      <c r="J35" t="s">
-        <v>34</v>
-      </c>
       <c r="K35" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="L35" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" t="n">
-        <v>5.7956581E7</v>
+        <v>1.715828441E9</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -2425,37 +2413,37 @@
         <v>132</v>
       </c>
       <c r="C37" t="n">
-        <v>2.55309402E9</v>
+        <v>9.49783529E8</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" t="s">
         <v>35</v>
       </c>
-      <c r="J37" t="s">
-        <v>121</v>
-      </c>
       <c r="K37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -2466,34 +2454,34 @@
         <v>134</v>
       </c>
       <c r="C38" t="n">
-        <v>6.771180107E9</v>
+        <v>3.593665854E9</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L38" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M38" t="s">
         <v>35</v>
@@ -2501,1150 +2489,1150 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" t="n">
-        <v>9.743073882E9</v>
+        <v>6.24294106E8</v>
       </c>
       <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" t="s">
-        <v>66</v>
-      </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="n">
-        <v>5.920392991E9</v>
+        <v>8.751963322E9</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
         <v>21</v>
       </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" t="s">
-        <v>31</v>
-      </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M40" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C41" t="n">
-        <v>5.615034468E9</v>
+        <v>9.87621321E8</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
         <v>23</v>
       </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" t="s">
         <v>37</v>
       </c>
-      <c r="I41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" t="s">
-        <v>34</v>
-      </c>
       <c r="M41" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C42" t="n">
-        <v>4.964102057E9</v>
+        <v>1.666969619E9</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
         <v>20</v>
       </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" t="s">
-        <v>45</v>
-      </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C43" t="n">
-        <v>3.427544161E9</v>
+        <v>1.318148154E9</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
         <v>18</v>
       </c>
-      <c r="K43" t="s">
-        <v>48</v>
-      </c>
       <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
         <v>50</v>
-      </c>
-      <c r="M43" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C44" t="n">
-        <v>6.838323909E9</v>
+        <v>4.248143842E9</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L44" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C45" t="n">
-        <v>1.715828441E9</v>
+        <v>1.393396161E9</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K45" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="M45" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C46" t="n">
-        <v>5.706907595E9</v>
+        <v>8.192573578E9</v>
       </c>
       <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" t="s">
-        <v>50</v>
-      </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" t="n">
-        <v>5.997361699E9</v>
+        <v>4.198452315E9</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" t="s">
         <v>25</v>
       </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J47" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47" t="s">
-        <v>24</v>
-      </c>
       <c r="L47" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C48" t="n">
-        <v>8.83193935E8</v>
+        <v>7.208066335E9</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K48" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="L48" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C49" t="n">
-        <v>9.8765215E7</v>
+        <v>3.354471084E9</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M49" t="s">
         <v>16</v>
-      </c>
-      <c r="L49" t="s">
-        <v>49</v>
-      </c>
-      <c r="M49" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C50" t="n">
-        <v>7.59178159E8</v>
+        <v>2.275645049E9</v>
       </c>
       <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" t="s">
         <v>20</v>
-      </c>
-      <c r="E50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" t="s">
-        <v>88</v>
-      </c>
-      <c r="I50" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" t="s">
-        <v>45</v>
-      </c>
-      <c r="L50" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C51" t="n">
-        <v>1.08061742E8</v>
+        <v>5.318934199E9</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
         <v>17</v>
       </c>
-      <c r="G51" t="s">
-        <v>130</v>
-      </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K51" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M51" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C52" t="n">
-        <v>7.738747511E9</v>
+        <v>9.978513007E9</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="s">
         <v>19</v>
       </c>
-      <c r="K52" t="s">
-        <v>81</v>
-      </c>
-      <c r="L52" t="s">
-        <v>24</v>
-      </c>
       <c r="M52" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C53" t="n">
-        <v>5.108479364E9</v>
+        <v>8.64137787E8</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J53" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M53" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C54" t="n">
-        <v>2.490317053E9</v>
+        <v>8.0128168E9</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M54" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C55" t="n">
-        <v>9.759963046E9</v>
+        <v>9.653574129E9</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C56" t="n">
-        <v>7.317095954E9</v>
+        <v>1.466410665E9</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K56" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M56" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C57" t="n">
-        <v>9.689211019E9</v>
+        <v>2.789847158E9</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M57" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" t="n">
-        <v>5.973862002E9</v>
+        <v>2.646156455E9</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
         <v>18</v>
       </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" t="n">
-        <v>6.792345647E9</v>
+        <v>4.381404663E9</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="s">
-        <v>25</v>
-      </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="K59" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C60" t="n">
-        <v>8.874920103E9</v>
+        <v>9.849198885E9</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="K60" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L60" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C61" t="n">
-        <v>4.057039398E9</v>
+        <v>5.91008718E9</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
         <v>42</v>
       </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L61" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M61" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C62" t="n">
-        <v>9.1925426E8</v>
+        <v>1037432.0</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L62" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M62" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" t="n">
-        <v>9.551000559E9</v>
+        <v>5.513555756E9</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
         <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K63" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M63" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C64" t="n">
-        <v>2.772413515E9</v>
+        <v>4.708483206E9</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I64" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L64" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M64" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C65" t="n">
-        <v>1.091231195E9</v>
+        <v>1.466410665E9</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C66" t="n">
-        <v>4.057039398E9</v>
+        <v>2.913954937E9</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="J66" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K66" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M66" t="s">
         <v>18</v>
-      </c>
-      <c r="M66" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -3655,25 +3643,25 @@
         <v>191</v>
       </c>
       <c r="C67" t="n">
-        <v>3.394063295E9</v>
+        <v>5.374249629E9</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
         <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -3682,10 +3670,10 @@
         <v>35</v>
       </c>
       <c r="L67" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="M67" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -3696,37 +3684,37 @@
         <v>193</v>
       </c>
       <c r="C68" t="n">
-        <v>5.062164858E9</v>
+        <v>1248532.0</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H68" t="s">
         <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K68" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L68" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M68" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
@@ -3737,239 +3725,239 @@
         <v>195</v>
       </c>
       <c r="C69" t="n">
-        <v>1.22222334E8</v>
+        <v>2.60681731E8</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M69" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C70" t="n">
-        <v>2.631052632E9</v>
+        <v>6.625054576E9</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="F70" t="s">
         <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L70" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M70" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C71" t="n">
-        <v>5.386300114E9</v>
+        <v>4.352354365536E12</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="H71" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M71" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C72" t="n">
-        <v>4.249744571E9</v>
+        <v>7.390458629E9</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="I72" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="K72" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L72" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C73" t="n">
-        <v>6.905934778E9</v>
+        <v>6.697772024E9</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" t="s">
         <v>37</v>
       </c>
-      <c r="H73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" t="s">
-        <v>25</v>
-      </c>
       <c r="J73" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="L73" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C74" t="n">
-        <v>5.048896071E9</v>
+        <v>234367.0</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="K74" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L74" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="M74" t="s">
         <v>36</v>
@@ -3977,412 +3965,412 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C75" t="n">
-        <v>5.857055763E9</v>
+        <v>6.764611459E9</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J75" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K75" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C76" t="n">
-        <v>6.77550514E8</v>
+        <v>5.68182068E8</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K76" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="L76" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M76" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C77" t="n">
-        <v>2.179195164E9</v>
+        <v>2.5635927E8</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>60</v>
+      </c>
+      <c r="L77" t="s">
         <v>21</v>
       </c>
-      <c r="G77" t="s">
-        <v>72</v>
-      </c>
-      <c r="H77" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" t="s">
-        <v>34</v>
-      </c>
-      <c r="L77" t="s">
-        <v>36</v>
-      </c>
       <c r="M77" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C78" t="n">
-        <v>8.794186319E9</v>
+        <v>4.557309301E9</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s">
+        <v>116</v>
+      </c>
+      <c r="I78" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s">
         <v>16</v>
       </c>
-      <c r="G78" t="s">
-        <v>72</v>
-      </c>
-      <c r="H78" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" t="s">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s">
-        <v>34</v>
-      </c>
       <c r="K78" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="L78" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M78" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C79" t="n">
-        <v>4.345530047E9</v>
+        <v>3.83948825E9</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
         <v>35</v>
       </c>
-      <c r="H79" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79" t="s">
-        <v>56</v>
-      </c>
       <c r="K79" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L79" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M79" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C80" t="n">
-        <v>5.7956581E7</v>
+        <v>1.859925444E9</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" t="s">
         <v>51</v>
-      </c>
-      <c r="F80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" t="s">
-        <v>45</v>
-      </c>
-      <c r="I80" t="s">
-        <v>17</v>
       </c>
       <c r="J80" t="s">
         <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L80" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C81" t="n">
-        <v>1.466410665E9</v>
+        <v>1.984611027E9</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="C82" t="n">
-        <v>3.921044913E9</v>
+        <v>6.31505229E9</v>
       </c>
       <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>221</v>
+      </c>
+      <c r="K82" t="s">
         <v>55</v>
       </c>
-      <c r="E82" t="s">
+      <c r="L82" t="s">
         <v>25</v>
       </c>
-      <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>51</v>
-      </c>
-      <c r="H82" t="s">
-        <v>25</v>
-      </c>
-      <c r="I82" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K82" t="s">
-        <v>43</v>
-      </c>
-      <c r="L82" t="s">
-        <v>44</v>
-      </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C83" t="n">
-        <v>6.242667602E9</v>
+        <v>1.858110343E9</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s">
         <v>34</v>
       </c>
       <c r="K83" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="L83" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M83" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="C84" t="n">
-        <v>2.125279244E9</v>
+        <v>9.978513007E9</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I84" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L84" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="M84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -4393,37 +4381,37 @@
         <v>225</v>
       </c>
       <c r="C85" t="n">
-        <v>8.214326453E9</v>
+        <v>8.239638509E9</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="J85" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="K85" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="L85" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M85" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
@@ -4434,37 +4422,37 @@
         <v>227</v>
       </c>
       <c r="C86" t="n">
-        <v>2.412622932E9</v>
+        <v>3.160659342E9</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" t="s">
-        <v>54</v>
-      </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="J86" t="s">
+        <v>35</v>
+      </c>
+      <c r="K86" t="s">
+        <v>76</v>
+      </c>
+      <c r="L86" t="s">
         <v>34</v>
       </c>
-      <c r="K86" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" t="s">
-        <v>93</v>
-      </c>
       <c r="M86" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -4475,37 +4463,37 @@
         <v>229</v>
       </c>
       <c r="C87" t="n">
-        <v>9.507784559E9</v>
+        <v>2.697207764E9</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I87" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K87" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L87" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M87" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -4516,324 +4504,324 @@
         <v>231</v>
       </c>
       <c r="C88" t="n">
-        <v>3.166081053E9</v>
+        <v>6.616830756E9</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I88" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K88" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M88" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C89" t="n">
-        <v>2.49388484E9</v>
+        <v>6.64442222223E11</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H89" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J89" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K89" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L89" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M89" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C90" t="n">
-        <v>6.3852196E8</v>
+        <v>8.407967758E9</v>
       </c>
       <c r="D90" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" t="s">
         <v>25</v>
       </c>
-      <c r="E90" t="s">
-        <v>49</v>
-      </c>
-      <c r="F90" t="s">
-        <v>51</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" t="s">
-        <v>21</v>
-      </c>
-      <c r="I90" t="s">
-        <v>34</v>
-      </c>
       <c r="J90" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M90" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C91" t="n">
-        <v>8.47263461E8</v>
+        <v>5.345271302E9</v>
       </c>
       <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>55</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" t="s">
+        <v>76</v>
+      </c>
+      <c r="M91" t="s">
         <v>21</v>
-      </c>
-      <c r="E91" t="s">
-        <v>56</v>
-      </c>
-      <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" t="s">
-        <v>121</v>
-      </c>
-      <c r="J91" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91" t="s">
-        <v>44</v>
-      </c>
-      <c r="L91" t="s">
-        <v>23</v>
-      </c>
-      <c r="M91" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C92" t="n">
-        <v>2.281120686E9</v>
+        <v>3.136738743E9</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H92" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J92" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" t="s">
+        <v>35</v>
+      </c>
+      <c r="L92" t="s">
+        <v>47</v>
+      </c>
+      <c r="M92" t="s">
         <v>18</v>
-      </c>
-      <c r="K92" t="s">
-        <v>23</v>
-      </c>
-      <c r="L92" t="s">
-        <v>23</v>
-      </c>
-      <c r="M92" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C93" t="n">
-        <v>9.338658647E9</v>
+        <v>4.849006435E9</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I93" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="J93" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="K93" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L93" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="M93" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C94" t="n">
-        <v>8.07344617E8</v>
+        <v>6.288663398E9</v>
       </c>
       <c r="D94" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M94" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C95" t="n">
-        <v>5.316789403E9</v>
+        <v>5.508614615E9</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H95" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="K95" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L95" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="M95" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -4844,37 +4832,37 @@
         <v>248</v>
       </c>
       <c r="C96" t="n">
-        <v>6.658151086E9</v>
+        <v>7.653671888E9</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
         <v>22</v>
       </c>
-      <c r="F96" t="s">
-        <v>35</v>
-      </c>
       <c r="G96" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H96" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="I96" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="J96" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K96" t="s">
+        <v>67</v>
+      </c>
+      <c r="L96" t="s">
+        <v>47</v>
+      </c>
+      <c r="M96" t="s">
         <v>37</v>
-      </c>
-      <c r="L96" t="s">
-        <v>44</v>
-      </c>
-      <c r="M96" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="97">
@@ -4885,447 +4873,447 @@
         <v>250</v>
       </c>
       <c r="C97" t="n">
-        <v>8.268663905E9</v>
+        <v>6.74210168E8</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G97" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="H97" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="J97" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K97" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M97" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08061742E8</v>
+        <v>2.13254678798E11</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="H98" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>204</v>
+      </c>
+      <c r="L98" t="s">
         <v>23</v>
       </c>
-      <c r="J98" t="s">
-        <v>73</v>
-      </c>
-      <c r="K98" t="s">
-        <v>81</v>
-      </c>
-      <c r="L98" t="s">
-        <v>251</v>
-      </c>
       <c r="M98" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C99" t="n">
-        <v>1.966233706E9</v>
+        <v>9.94736796E8</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="K99" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="L99" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M99" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C100" t="n">
-        <v>2.441079795E9</v>
+        <v>5.029305425E9</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I100" t="s">
         <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K100" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" t="s">
+        <v>67</v>
+      </c>
+      <c r="M100" t="s">
         <v>25</v>
-      </c>
-      <c r="L100" t="s">
-        <v>44</v>
-      </c>
-      <c r="M100" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C101" t="n">
-        <v>2.664856917E9</v>
+        <v>6.968703183E9</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I101" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L101" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M101" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C102" t="n">
-        <v>3.411953237E9</v>
+        <v>5.121641199E9</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H102" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I102" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J102" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K102" t="s">
+        <v>63</v>
+      </c>
+      <c r="L102" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" t="s">
         <v>16</v>
-      </c>
-      <c r="L102" t="s">
-        <v>45</v>
-      </c>
-      <c r="M102" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C103" t="n">
-        <v>4.463974702E9</v>
+        <v>7.977909301E9</v>
       </c>
       <c r="D103" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H103" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K103" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L103" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M103" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8563245E7</v>
+        <v>1.324149925E9</v>
       </c>
       <c r="D104" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="G104" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H104" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K104" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C105" t="n">
-        <v>9.048841714E9</v>
+        <v>8.194223807E9</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G105" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H105" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K105" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="L105" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M105" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C106" t="n">
-        <v>5.293494983E9</v>
+        <v>1.27760909E8</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" t="s">
         <v>20</v>
       </c>
-      <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" t="s">
-        <v>44</v>
-      </c>
       <c r="I106" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="L106" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M106" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C107" t="n">
-        <v>5.508614615E9</v>
+        <v>5.135595317E9</v>
       </c>
       <c r="D107" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
         <v>19</v>
       </c>
-      <c r="E107" t="s">
-        <v>271</v>
-      </c>
-      <c r="F107" t="s">
-        <v>61</v>
-      </c>
       <c r="G107" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H107" t="s">
+        <v>50</v>
+      </c>
+      <c r="I107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J107" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" t="s">
+        <v>68</v>
+      </c>
+      <c r="L107" t="s">
         <v>24</v>
       </c>
-      <c r="I107" t="s">
-        <v>60</v>
-      </c>
-      <c r="J107" t="s">
-        <v>25</v>
-      </c>
-      <c r="K107" t="s">
-        <v>50</v>
-      </c>
-      <c r="L107" t="s">
-        <v>18</v>
-      </c>
       <c r="M107" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108">
@@ -5336,242 +5324,242 @@
         <v>273</v>
       </c>
       <c r="C108" t="n">
-        <v>9.639897045E9</v>
+        <v>9.2219749E8</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="H108" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I108" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J108" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="L108" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="M108" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" t="s">
         <v>275</v>
       </c>
-      <c r="B109" t="s">
-        <v>276</v>
-      </c>
       <c r="C109" t="n">
-        <v>3.80557469E9</v>
+        <v>9.243355462E9</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" t="s">
         <v>21</v>
       </c>
-      <c r="F109" t="s">
-        <v>73</v>
-      </c>
       <c r="G109" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H109" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K109" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L109" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>276</v>
+      </c>
+      <c r="B110" t="s">
         <v>277</v>
       </c>
-      <c r="B110" t="s">
-        <v>278</v>
-      </c>
       <c r="C110" t="n">
-        <v>6.00337927E8</v>
+        <v>8.92279582E9</v>
       </c>
       <c r="D110" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E110" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F110" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s">
+        <v>29</v>
+      </c>
+      <c r="J110" t="s">
         <v>25</v>
       </c>
-      <c r="H110" t="s">
-        <v>44</v>
-      </c>
-      <c r="I110" t="s">
-        <v>28</v>
-      </c>
-      <c r="J110" t="s">
-        <v>22</v>
-      </c>
       <c r="K110" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L110" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" t="s">
         <v>279</v>
       </c>
-      <c r="B111" t="s">
-        <v>280</v>
-      </c>
       <c r="C111" t="n">
-        <v>9.94498597E8</v>
+        <v>9.571046396E9</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I111" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="L111" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M111" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="C112" t="n">
-        <v>6.3852196E8</v>
+        <v>8.874920103E9</v>
       </c>
       <c r="D112" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F112" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J112" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K112" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="L112" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M112" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" t="s">
         <v>281</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="n">
+        <v>2.469163359E9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" t="s">
+        <v>35</v>
+      </c>
+      <c r="L113" t="s">
         <v>282</v>
       </c>
-      <c r="C113" t="n">
-        <v>3.564206199E9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113" t="s">
-        <v>64</v>
-      </c>
-      <c r="F113" t="s">
-        <v>72</v>
-      </c>
-      <c r="G113" t="s">
-        <v>39</v>
-      </c>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-      <c r="I113" t="s">
-        <v>66</v>
-      </c>
-      <c r="J113" t="s">
-        <v>130</v>
-      </c>
-      <c r="K113" t="s">
-        <v>130</v>
-      </c>
-      <c r="L113" t="s">
-        <v>17</v>
-      </c>
       <c r="M113" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
@@ -5582,283 +5570,242 @@
         <v>284</v>
       </c>
       <c r="C114" t="n">
-        <v>2.501521077E9</v>
+        <v>2.878870304E9</v>
       </c>
       <c r="D114" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
+        <v>52</v>
+      </c>
+      <c r="H114" t="s">
         <v>37</v>
       </c>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
       <c r="I114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K114" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L114" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M114" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="C115" t="n">
-        <v>1.3556753E7</v>
+        <v>3.83948825E9</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s">
         <v>25</v>
       </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" t="s">
-        <v>161</v>
-      </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="K115" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="L115" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C116" t="n">
-        <v>8.91692955E9</v>
+        <v>9.243355462E9</v>
       </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G116" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H116" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I116" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J116" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="K116" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L116" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M116" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="C117" t="n">
-        <v>8.28630724E9</v>
+        <v>8.470313807E9</v>
       </c>
       <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>60</v>
+      </c>
+      <c r="H117" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117" t="s">
+        <v>40</v>
+      </c>
+      <c r="J117" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" t="s">
+        <v>25</v>
+      </c>
+      <c r="L117" t="s">
         <v>21</v>
       </c>
-      <c r="E117" t="s">
-        <v>49</v>
-      </c>
-      <c r="F117" t="s">
-        <v>35</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" t="s">
-        <v>36</v>
-      </c>
-      <c r="I117" t="s">
-        <v>36</v>
-      </c>
-      <c r="J117" t="s">
-        <v>51</v>
-      </c>
-      <c r="K117" t="s">
+      <c r="M117" t="s">
         <v>18</v>
-      </c>
-      <c r="L117" t="s">
-        <v>28</v>
-      </c>
-      <c r="M117" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B118" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C118" t="n">
-        <v>1.253325412E9</v>
+        <v>4.988725571E9</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H118" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I118" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J118" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" t="s">
+        <v>35</v>
+      </c>
+      <c r="L118" t="s">
         <v>15</v>
       </c>
-      <c r="K118" t="s">
-        <v>37</v>
-      </c>
-      <c r="L118" t="s">
-        <v>56</v>
-      </c>
       <c r="M118" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B119" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C119" t="n">
-        <v>1.393150169E9</v>
+        <v>8.394967843E9</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" t="s">
         <v>28</v>
       </c>
-      <c r="G119" t="s">
-        <v>124</v>
-      </c>
-      <c r="H119" t="s">
-        <v>87</v>
-      </c>
-      <c r="I119" t="s">
-        <v>15</v>
-      </c>
       <c r="J119" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K119" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L119" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M119" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" t="s">
-        <v>191</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3.394063295E9</v>
-      </c>
-      <c r="D120" t="s">
-        <v>130</v>
-      </c>
-      <c r="E120" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" t="s">
-        <v>81</v>
-      </c>
-      <c r="I120" t="s">
-        <v>37</v>
-      </c>
-      <c r="J120" t="s">
-        <v>20</v>
-      </c>
-      <c r="K120" t="s">
-        <v>76</v>
-      </c>
-      <c r="L120" t="s">
-        <v>66</v>
-      </c>
-      <c r="M120" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/studentPreferences120.xlsx
+++ b/src/main/resources/studentPreferences120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="291">
   <si>
     <t>First Name</t>
   </si>
@@ -53,79 +53,220 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Thyng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>writing Russian novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Art of War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carolus</t>
-  </si>
-  <si>
-    <t>Livezley</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
+    <t>Bethany</t>
+  </si>
+  <si>
+    <t>Scorer</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>adopting children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>promoting greed in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rwanda and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Camilla</t>
+  </si>
+  <si>
+    <t>Firmage</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making home-made clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Raoul</t>
+  </si>
+  <si>
+    <t>Brunskill</t>
+  </si>
+  <si>
+    <t>hunting rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jennilee</t>
+  </si>
+  <si>
+    <t>Junes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>seducing emperors in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ancient Egypt and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Gallard</t>
+  </si>
+  <si>
+    <t>Colter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t>Hackly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ansel</t>
+  </si>
+  <si>
+    <t>Patry</t>
   </si>
   <si>
     <t>Acting and the Cthulu mythos</t>
   </si>
   <si>
-    <t>winning heavyweight titles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Christianity and the Cthulu-Dagon mythos</t>
+    <t>Germaine</t>
+  </si>
+  <si>
+    <t>Peert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a kingdom in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American football and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Adolpho</t>
+  </si>
+  <si>
+    <t>Donner</t>
+  </si>
+  <si>
+    <t>posing for photographs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Darrin</t>
+  </si>
+  <si>
+    <t>Mowne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fifi</t>
+  </si>
+  <si>
+    <t>Bartusek</t>
+  </si>
+  <si>
+    <t>Adrianne</t>
+  </si>
+  <si>
+    <t>Pillifant</t>
+  </si>
+  <si>
+    <t>flying into a rage in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomasina</t>
+  </si>
+  <si>
+    <t>Wabersich</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Montague</t>
+  </si>
+  <si>
+    <t>Deener</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
   </si>
   <si>
     <t>Karlie</t>
@@ -134,376 +275,586 @@
     <t>Montel</t>
   </si>
   <si>
-    <t>protecting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War And Peace and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Brooke</t>
-  </si>
-  <si>
-    <t>Collinwood</t>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Middle Class and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>Muskett</t>
   </si>
   <si>
     <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Calida</t>
-  </si>
-  <si>
-    <t>Leatherborrow</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Boxing and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Caz</t>
-  </si>
-  <si>
-    <t>Fulker</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harri</t>
-  </si>
-  <si>
-    <t>Pellamonuten</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Clarette</t>
-  </si>
-  <si>
-    <t>Harriman</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Newton</t>
-  </si>
-  <si>
-    <t>Klejin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> representing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Lince</t>
+  </si>
+  <si>
+    <t>dining with playboy princes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Vanda</t>
+  </si>
+  <si>
+    <t>Ginity</t>
+  </si>
+  <si>
+    <t>Arnoldo</t>
+  </si>
+  <si>
+    <t>Di Giorgio</t>
+  </si>
+  <si>
+    <t>Louisa</t>
+  </si>
+  <si>
+    <t>Toth</t>
+  </si>
+  <si>
+    <t>Kiele</t>
+  </si>
+  <si>
+    <t>Worland</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Drohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Anabelle</t>
+  </si>
+  <si>
+    <t>Rizzolo</t>
+  </si>
+  <si>
+    <t>Ruthann</t>
+  </si>
+  <si>
+    <t>MacConnal</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Beverie</t>
+  </si>
+  <si>
+    <t>Loosely</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Annesley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Imogen</t>
+  </si>
+  <si>
+    <t>Woodwing</t>
+  </si>
+  <si>
+    <t>Ludwig</t>
+  </si>
+  <si>
+    <t>Boffey</t>
+  </si>
+  <si>
+    <t>Mozelle</t>
+  </si>
+  <si>
+    <t>Ropartz</t>
+  </si>
+  <si>
+    <t>Ulberto</t>
+  </si>
+  <si>
+    <t>Eskrigge</t>
+  </si>
+  <si>
+    <t>Padgett</t>
+  </si>
+  <si>
+    <t>Kellog</t>
+  </si>
+  <si>
+    <t>Binky</t>
+  </si>
+  <si>
+    <t>Macak</t>
+  </si>
+  <si>
+    <t>Saunders</t>
+  </si>
+  <si>
+    <t>Dulwich</t>
+  </si>
+  <si>
+    <t>Tonie</t>
+  </si>
+  <si>
+    <t>Patis</t>
+  </si>
+  <si>
+    <t>Ellynn</t>
+  </si>
+  <si>
+    <t>Nowland</t>
+  </si>
+  <si>
+    <t>Devland</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Lauritz</t>
+  </si>
+  <si>
+    <t>Holton</t>
+  </si>
+  <si>
+    <t>Angelique</t>
+  </si>
+  <si>
+    <t>Rothwell</t>
+  </si>
+  <si>
+    <t>Mohandis</t>
+  </si>
+  <si>
+    <t>Arendt</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Findley</t>
+  </si>
+  <si>
+    <t>Spensley</t>
+  </si>
+  <si>
+    <t>Malynda</t>
+  </si>
+  <si>
+    <t>Collocott</t>
+  </si>
+  <si>
+    <t>Inez</t>
+  </si>
+  <si>
+    <t>Chrystal</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Richardot</t>
+  </si>
+  <si>
+    <t>Yvon</t>
+  </si>
+  <si>
+    <t>Sarge</t>
+  </si>
+  <si>
+    <t>Ossie</t>
+  </si>
+  <si>
+    <t>Darkott</t>
+  </si>
+  <si>
+    <t>Lyssa</t>
+  </si>
+  <si>
+    <t>Scherer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cassondra</t>
+  </si>
+  <si>
+    <t>Lamberton</t>
+  </si>
+  <si>
+    <t>Kinsley</t>
+  </si>
+  <si>
+    <t>Josefovic</t>
+  </si>
+  <si>
+    <t>Vidovic</t>
+  </si>
+  <si>
+    <t>Hardway</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>Gilbart</t>
+  </si>
+  <si>
+    <t>Dominick</t>
+  </si>
+  <si>
+    <t>Bloxam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making lewd remarks in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>Enid</t>
   </si>
   <si>
-    <t>Turfrey</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kermy</t>
-  </si>
-  <si>
-    <t>McQuillen</t>
+    <t>Roddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sheeree</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Kienan</t>
+  </si>
+  <si>
+    <t>Jillett</t>
+  </si>
+  <si>
+    <t>Antonetta</t>
+  </si>
+  <si>
+    <t>Worham</t>
+  </si>
+  <si>
+    <t>Lazare</t>
+  </si>
+  <si>
+    <t>Groucutt</t>
+  </si>
+  <si>
+    <t>Clareta</t>
+  </si>
+  <si>
+    <t>Lared</t>
+  </si>
+  <si>
+    <t>studying paleontology in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mirabella</t>
+  </si>
+  <si>
+    <t>Goodbourn</t>
+  </si>
+  <si>
+    <t>Clemmy</t>
+  </si>
+  <si>
+    <t>Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Kirbie</t>
+  </si>
+  <si>
+    <t>Pead</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Spincke</t>
+  </si>
+  <si>
+    <t>Karita</t>
+  </si>
+  <si>
+    <t>Carlino</t>
+  </si>
+  <si>
+    <t>Jervis</t>
+  </si>
+  <si>
+    <t>Boatwright</t>
+  </si>
+  <si>
+    <t>Olia</t>
+  </si>
+  <si>
+    <t>Garaghan</t>
+  </si>
+  <si>
+    <t>Carmel</t>
+  </si>
+  <si>
+    <t>Beatens</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Doag</t>
+  </si>
+  <si>
+    <t>planning adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Scamaden</t>
+  </si>
+  <si>
+    <t>Vinita</t>
+  </si>
+  <si>
+    <t>Banes</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Lapish</t>
+  </si>
+  <si>
+    <t>Wandie</t>
+  </si>
+  <si>
+    <t>Cargen</t>
+  </si>
+  <si>
+    <t>Emili</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Tris</t>
+  </si>
+  <si>
+    <t>Mathiassen</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Matthewson</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Paunsford</t>
+  </si>
+  <si>
+    <t>Clary</t>
+  </si>
+  <si>
+    <t>Gerardet</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>Meindl</t>
+  </si>
+  <si>
+    <t>Lilli</t>
+  </si>
+  <si>
+    <t>Lewer</t>
+  </si>
+  <si>
+    <t>Shanta</t>
+  </si>
+  <si>
+    <t>Harbach</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Demko</t>
+  </si>
+  <si>
+    <t>Pearce</t>
+  </si>
+  <si>
+    <t>Saiens</t>
+  </si>
+  <si>
+    <t>Mile</t>
+  </si>
+  <si>
+    <t>Nutbeam</t>
+  </si>
+  <si>
+    <t>Devon</t>
+  </si>
+  <si>
+    <t>Stovold</t>
+  </si>
+  <si>
+    <t>Saloma</t>
+  </si>
+  <si>
+    <t>Stonehewer</t>
+  </si>
+  <si>
+    <t>Jarred</t>
+  </si>
+  <si>
+    <t>Gerardeaux</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Abrahamoff</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Frier</t>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>Gibbens</t>
+  </si>
+  <si>
+    <t>Ashely</t>
+  </si>
+  <si>
+    <t>Tolmie</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>Milby</t>
   </si>
   <si>
     <t>Marchelle</t>
   </si>
   <si>
-    <t>Weaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Darrin</t>
-  </si>
-  <si>
-    <t>Bindley</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Pru</t>
-  </si>
-  <si>
-    <t>Tappor</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simone</t>
-  </si>
-  <si>
-    <t>McBrearty</t>
-  </si>
-  <si>
-    <t>Emili</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>directing action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>McHugh</t>
-  </si>
-  <si>
-    <t>Coraline</t>
-  </si>
-  <si>
-    <t>Witty</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Georgius</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Tabbernor</t>
-  </si>
-  <si>
-    <t>Dodi</t>
-  </si>
-  <si>
-    <t>Gauch</t>
-  </si>
-  <si>
-    <t>British politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Harlin</t>
-  </si>
-  <si>
-    <t>McMichael</t>
-  </si>
-  <si>
-    <t>Ines</t>
-  </si>
-  <si>
-    <t>Willmetts</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gilda</t>
-  </si>
-  <si>
-    <t>Christopherson</t>
-  </si>
-  <si>
-    <t>Franzen</t>
-  </si>
-  <si>
-    <t>McKelvey</t>
-  </si>
-  <si>
-    <t>Kinsley</t>
-  </si>
-  <si>
-    <t>Josefovic</t>
-  </si>
-  <si>
-    <t>Jayson</t>
-  </si>
-  <si>
-    <t>Marcq</t>
-  </si>
-  <si>
-    <t>Marvel Comics. Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tandi</t>
-  </si>
-  <si>
-    <t>Keesman</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Middlewick</t>
-  </si>
-  <si>
-    <t>Lalo</t>
-  </si>
-  <si>
-    <t>MacDonald</t>
-  </si>
-  <si>
-    <t>Garek</t>
-  </si>
-  <si>
-    <t>Vines</t>
-  </si>
-  <si>
-    <t>Ronny</t>
-  </si>
-  <si>
-    <t>Moylane</t>
-  </si>
-  <si>
-    <t>Wit</t>
-  </si>
-  <si>
-    <t>Bentje</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Benford</t>
-  </si>
-  <si>
-    <t>Jody</t>
-  </si>
-  <si>
-    <t>Gowing</t>
-  </si>
-  <si>
-    <t>Mordy</t>
-  </si>
-  <si>
-    <t>Wallworth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gerick</t>
-  </si>
-  <si>
-    <t>Arnecke</t>
-  </si>
-  <si>
-    <t>Stu</t>
-  </si>
-  <si>
-    <t>Barrick</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>Barrowcliff</t>
-  </si>
-  <si>
-    <t>Wilow</t>
-  </si>
-  <si>
-    <t>Favela</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Tull</t>
-  </si>
-  <si>
-    <t>Eat</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Salmon</t>
-  </si>
-  <si>
-    <t>Shanta</t>
-  </si>
-  <si>
-    <t>Harbach</t>
-  </si>
-  <si>
-    <t>Claudelle</t>
-  </si>
-  <si>
-    <t>Lyenyng</t>
-  </si>
-  <si>
-    <t>Sergent</t>
-  </si>
-  <si>
-    <t>aManger</t>
-  </si>
-  <si>
-    <t>Raoul</t>
-  </si>
-  <si>
-    <t>Franscioni</t>
-  </si>
-  <si>
-    <t>Ignace</t>
-  </si>
-  <si>
-    <t>Foulds</t>
-  </si>
-  <si>
-    <t>Tully</t>
-  </si>
-  <si>
-    <t>Urpeth</t>
-  </si>
-  <si>
-    <t>Electra</t>
-  </si>
-  <si>
-    <t>Hazelton</t>
+    <t>Lauder</t>
+  </si>
+  <si>
+    <t>Teresita</t>
+  </si>
+  <si>
+    <t>Blackader</t>
+  </si>
+  <si>
+    <t>Miof mela</t>
+  </si>
+  <si>
+    <t>Zanioletti</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>Cuer</t>
+  </si>
+  <si>
+    <t>Kristin</t>
+  </si>
+  <si>
+    <t>Sinnie</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>Telezhkin</t>
+  </si>
+  <si>
+    <t>Lyndell</t>
+  </si>
+  <si>
+    <t>Bjorkan</t>
+  </si>
+  <si>
+    <t>Dall</t>
+  </si>
+  <si>
+    <t>Iggo</t>
+  </si>
+  <si>
+    <t>Melosa</t>
+  </si>
+  <si>
+    <t>Yakushkev</t>
+  </si>
+  <si>
+    <t>Jo-ann</t>
+  </si>
+  <si>
+    <t>Flawn</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Ivanenko</t>
+  </si>
+  <si>
+    <t>Kaycee</t>
+  </si>
+  <si>
+    <t>Corradetti</t>
+  </si>
+  <si>
+    <t>Kendell</t>
+  </si>
+  <si>
+    <t>Baudain</t>
+  </si>
+  <si>
+    <t>Linnie</t>
+  </si>
+  <si>
+    <t>Tolley</t>
+  </si>
+  <si>
+    <t>Malvin</t>
+  </si>
+  <si>
+    <t>Storcke</t>
   </si>
   <si>
     <t>Cosmo</t>
@@ -512,373 +863,28 @@
     <t>Ubsdall</t>
   </si>
   <si>
-    <t>Minerva</t>
-  </si>
-  <si>
-    <t>McNeish</t>
-  </si>
-  <si>
-    <t>Randee</t>
-  </si>
-  <si>
-    <t>Mateescu</t>
-  </si>
-  <si>
-    <t>Sherye</t>
-  </si>
-  <si>
-    <t>Hayers</t>
-  </si>
-  <si>
-    <t>Bronnie</t>
-  </si>
-  <si>
-    <t>Osgar</t>
-  </si>
-  <si>
-    <t>Randene</t>
-  </si>
-  <si>
-    <t>Skerman</t>
-  </si>
-  <si>
-    <t>Micheil</t>
-  </si>
-  <si>
-    <t>Jersch</t>
-  </si>
-  <si>
-    <t>Theodoric</t>
-  </si>
-  <si>
-    <t>Blain</t>
-  </si>
-  <si>
-    <t>Quincy</t>
-  </si>
-  <si>
-    <t>Elphick</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Matushevich</t>
-  </si>
-  <si>
-    <t>Everard</t>
-  </si>
-  <si>
-    <t>Jansky</t>
-  </si>
-  <si>
-    <t>Suki</t>
-  </si>
-  <si>
-    <t>Malone</t>
-  </si>
-  <si>
-    <t>Curt</t>
-  </si>
-  <si>
-    <t>Pesticcio</t>
-  </si>
-  <si>
-    <t>Mile</t>
-  </si>
-  <si>
-    <t>Nutbeam</t>
-  </si>
-  <si>
-    <t>Josie</t>
-  </si>
-  <si>
-    <t>Ewbanks</t>
-  </si>
-  <si>
-    <t>Ailsun</t>
-  </si>
-  <si>
-    <t>Pettecrew</t>
-  </si>
-  <si>
-    <t>waiting for a hero in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ruthann</t>
-  </si>
-  <si>
-    <t>MacConnal</t>
-  </si>
-  <si>
-    <t>Ric</t>
-  </si>
-  <si>
-    <t>Kinnett</t>
-  </si>
-  <si>
-    <t>the Cold War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Amalia</t>
-  </si>
-  <si>
-    <t>Seiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jeffie</t>
-  </si>
-  <si>
-    <t>Eddleston</t>
-  </si>
-  <si>
-    <t>Sybyl</t>
-  </si>
-  <si>
-    <t>Aldiss</t>
-  </si>
-  <si>
-    <t>Bonnie</t>
-  </si>
-  <si>
-    <t>Cruikshank</t>
-  </si>
-  <si>
-    <t>Marianne</t>
-  </si>
-  <si>
-    <t>Embra</t>
-  </si>
-  <si>
-    <t>Thaxter</t>
-  </si>
-  <si>
-    <t>Scadding</t>
-  </si>
-  <si>
-    <t>Shae</t>
-  </si>
-  <si>
-    <t>Gamlen</t>
-  </si>
-  <si>
-    <t>Hy</t>
-  </si>
-  <si>
-    <t>Stook</t>
-  </si>
-  <si>
-    <t>Tabitha</t>
-  </si>
-  <si>
-    <t>Callf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Fran</t>
-  </si>
-  <si>
-    <t>Iacopini</t>
-  </si>
-  <si>
-    <t>Nap</t>
-  </si>
-  <si>
-    <t>Jirzik</t>
-  </si>
-  <si>
-    <t>Burk</t>
-  </si>
-  <si>
-    <t>Haydney</t>
-  </si>
-  <si>
-    <t>Grover</t>
-  </si>
-  <si>
-    <t>Whittingham</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Gillian</t>
-  </si>
-  <si>
-    <t>Egor</t>
-  </si>
-  <si>
-    <t>Gottschalk</t>
-  </si>
-  <si>
-    <t>Farra</t>
-  </si>
-  <si>
-    <t>Muzzollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Bidgod</t>
-  </si>
-  <si>
-    <t>Vilma</t>
-  </si>
-  <si>
-    <t>Chastney</t>
-  </si>
-  <si>
-    <t>Lauritz</t>
-  </si>
-  <si>
-    <t>Holton</t>
-  </si>
-  <si>
-    <t>Putnam</t>
-  </si>
-  <si>
-    <t>Ewins</t>
-  </si>
-  <si>
-    <t>Anabella</t>
-  </si>
-  <si>
-    <t>Sabbin</t>
-  </si>
-  <si>
-    <t>Natalina</t>
-  </si>
-  <si>
-    <t>Lalevee</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Balchin</t>
-  </si>
-  <si>
-    <t>Emile</t>
-  </si>
-  <si>
-    <t>Mounch</t>
-  </si>
-  <si>
-    <t>Cheri</t>
-  </si>
-  <si>
-    <t>Eversley</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wade</t>
-  </si>
-  <si>
-    <t>Tezure</t>
-  </si>
-  <si>
-    <t>Abba</t>
-  </si>
-  <si>
-    <t>Stops</t>
-  </si>
-  <si>
-    <t>Hansiain</t>
-  </si>
-  <si>
-    <t>Newvill</t>
-  </si>
-  <si>
-    <t>Artair</t>
-  </si>
-  <si>
-    <t>Napleton</t>
-  </si>
-  <si>
-    <t>Shamus</t>
-  </si>
-  <si>
-    <t>Batchelar</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>O'Fallone</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Ferencz</t>
-  </si>
-  <si>
-    <t>Skylar</t>
-  </si>
-  <si>
-    <t>Midner</t>
-  </si>
-  <si>
-    <t>Corette</t>
-  </si>
-  <si>
-    <t>Dumblton</t>
-  </si>
-  <si>
-    <t>Amandie</t>
-  </si>
-  <si>
-    <t>Areles</t>
-  </si>
-  <si>
-    <t>Ivette</t>
-  </si>
-  <si>
-    <t>Presdee</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>Abrahamoff</t>
-  </si>
-  <si>
-    <t>Craggie</t>
-  </si>
-  <si>
-    <t>Hamner</t>
-  </si>
-  <si>
-    <t>searching for a new world in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bibi</t>
-  </si>
-  <si>
-    <t>Drain</t>
-  </si>
-  <si>
-    <t>Emmi</t>
-  </si>
-  <si>
-    <t>Tremmel</t>
-  </si>
-  <si>
-    <t>Branden</t>
-  </si>
-  <si>
-    <t>Gilsthorpe</t>
+    <t>Halli</t>
+  </si>
+  <si>
+    <t>Hindmore</t>
+  </si>
+  <si>
+    <t>Elianore</t>
+  </si>
+  <si>
+    <t>Ackrill</t>
+  </si>
+  <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Karolina</t>
+  </si>
+  <si>
+    <t>Hoggan</t>
   </si>
 </sst>
 </file>
@@ -937,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="n">
-        <v>2.082785671E9</v>
+        <v>8.138441997E9</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -958,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -978,63 +984,63 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.082785671E9</v>
+        <v>8.138441997E9</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.039427861E9</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1235678.0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -1043,2227 +1049,2227 @@
         <v>35</v>
       </c>
       <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="n">
+        <v>8.214326453E9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.323413259E9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="n">
+        <v>8.291431675E9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.116113664E9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>4.399159199E9</v>
+        <v>7.392486733E9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>4.350742591E9</v>
+        <v>1.7301623E7</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>1.393150169E9</v>
+        <v>6.527521862E9</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="n">
+        <v>2.22222200009E11</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="n">
-        <v>5.028857913E9</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="n">
-        <v>6.26071219E9</v>
+        <v>8.286329395E9</v>
       </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="n">
-        <v>1.778389146E9</v>
+        <v>5.4662275E9</v>
       </c>
       <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.769268299E9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.859925444E9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>2.075366384E9</v>
+        <v>7.327347668E9</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.697936311E9</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.703391914E9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" t="n">
-        <v>9.980292574E9</v>
+        <v>8.116634921E9</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
-        <v>1496062.0</v>
+        <v>2.323413259E9</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
-        <v>8.874920103E9</v>
+        <v>1.53334489E9</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>89</v>
-      </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>2.936141836E9</v>
+        <v>8.728068935E9</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C19" t="n">
-        <v>2.888353386E9</v>
+        <v>7.809061088E9</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C20" t="n">
-        <v>2.879212847E9</v>
+        <v>4.59671499E8</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
-      </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.49388484E9</v>
+        <v>5.739272825E9</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C22" t="n">
-        <v>9.78189718E9</v>
+        <v>6.175582369E9</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C23" t="n">
-        <v>6.31505229E9</v>
+        <v>2.368379023E9</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C24" t="n">
-        <v>6.28011824E9</v>
+        <v>5.755572117E9</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C25" t="n">
-        <v>6.984483185E9</v>
+        <v>6.625054576E9</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
         <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C26" t="n">
-        <v>6.989355369E9</v>
+        <v>6.00337927E8</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C27" t="n">
-        <v>8.470313807E9</v>
+        <v>9.773772661E9</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C28" t="n">
-        <v>1.821770758E9</v>
+        <v>5.226351313E9</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
         <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C29" t="n">
-        <v>4.390228491E9</v>
+        <v>5.54205962E8</v>
       </c>
       <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="L29" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" t="n">
-        <v>6.52148356E8</v>
+        <v>9.157258029E9</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
         <v>19</v>
       </c>
-      <c r="K30" t="s">
-        <v>33</v>
-      </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C31" t="n">
-        <v>4.01197192E9</v>
+        <v>4.703085237E9</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C32" t="n">
-        <v>8.40697946E9</v>
+        <v>8.47263461E8</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C33" t="n">
-        <v>5.995747437E9</v>
+        <v>8.404286067E9</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s">
         <v>21</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" t="s">
         <v>17</v>
       </c>
-      <c r="J33" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" t="s">
-        <v>21</v>
-      </c>
       <c r="M33" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C34" t="n">
-        <v>1.866119923E9</v>
+        <v>7.631567257E9</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C35" t="n">
-        <v>3.427544161E9</v>
+        <v>5.979404731E9</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C36" t="n">
-        <v>1.715828441E9</v>
+        <v>8.889668006E9</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C37" t="n">
-        <v>9.49783529E8</v>
+        <v>1.41692063E9</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
         <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C38" t="n">
-        <v>3.593665854E9</v>
+        <v>4.849006435E9</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C39" t="n">
-        <v>6.24294106E8</v>
+        <v>4.915975755E9</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C40" t="n">
-        <v>8.751963322E9</v>
+        <v>8.794186319E9</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C41" t="n">
-        <v>9.87621321E8</v>
+        <v>3.070513706E9</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" t="s">
         <v>23</v>
       </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" t="s">
-        <v>37</v>
-      </c>
       <c r="M41" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.678783231E9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
         <v>143</v>
       </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.666969619E9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M42" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C43" t="n">
-        <v>1.318148154E9</v>
+        <v>8.590897685E9</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C44" t="n">
-        <v>4.248143842E9</v>
+        <v>2.05938172E9</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M44" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C45" t="n">
-        <v>1.393396161E9</v>
+        <v>8.268699887E9</v>
       </c>
       <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
         <v>26</v>
       </c>
-      <c r="E45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45" t="s">
-        <v>35</v>
-      </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L45" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M45" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C46" t="n">
-        <v>8.192573578E9</v>
+        <v>1.102844843E9</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
         <v>33</v>
       </c>
       <c r="I46" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" t="s">
         <v>40</v>
-      </c>
-      <c r="J46" t="s">
-        <v>67</v>
-      </c>
-      <c r="K46" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" t="s">
-        <v>34</v>
-      </c>
-      <c r="M46" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C47" t="n">
-        <v>4.198452315E9</v>
+        <v>5.50802125E8</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="M47" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C48" t="n">
-        <v>7.208066335E9</v>
+        <v>5.54205962E8</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" t="s">
         <v>19</v>
       </c>
-      <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L48" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C49" t="n">
-        <v>3.354471084E9</v>
+        <v>1836572.0</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K49" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="L49" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M49" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C50" t="n">
-        <v>2.275645049E9</v>
+        <v>5.226351313E9</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K50" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L50" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51" t="n">
-        <v>5.318934199E9</v>
+        <v>1.821770758E9</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" t="s">
         <v>21</v>
       </c>
-      <c r="F51" t="s">
+      <c r="K51" t="s">
         <v>35</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" t="s">
-        <v>107</v>
-      </c>
-      <c r="J51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" t="s">
-        <v>17</v>
-      </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M51" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52" t="n">
-        <v>9.978513007E9</v>
+        <v>9.982170933E9</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J52" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M52" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C53" t="n">
-        <v>8.64137787E8</v>
+        <v>7.801875016E9</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
         <v>36</v>
-      </c>
-      <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" t="s">
-        <v>80</v>
-      </c>
-      <c r="I53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L53" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C54" t="n">
-        <v>8.0128168E9</v>
+        <v>9.174460145E9</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C55" t="n">
-        <v>9.653574129E9</v>
+        <v>5.755572117E9</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="L55" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.773772661E9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" t="s">
         <v>170</v>
       </c>
-      <c r="B56" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1.466410665E9</v>
-      </c>
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" t="s">
-        <v>35</v>
-      </c>
-      <c r="K56" t="s">
-        <v>135</v>
-      </c>
       <c r="L56" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" t="s">
         <v>172</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="n">
+        <v>7.109563687E9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" t="s">
         <v>173</v>
       </c>
-      <c r="C57" t="n">
-        <v>2.789847158E9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
       <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
         <v>20</v>
       </c>
-      <c r="I57" t="s">
-        <v>17</v>
-      </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L57" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M57" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -3274,37 +3280,37 @@
         <v>175</v>
       </c>
       <c r="C58" t="n">
-        <v>2.646156455E9</v>
+        <v>6.77550514E8</v>
       </c>
       <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s">
         <v>41</v>
       </c>
-      <c r="E58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" t="s">
         <v>18</v>
-      </c>
-      <c r="I58" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" t="s">
-        <v>83</v>
-      </c>
-      <c r="K58" t="s">
-        <v>37</v>
-      </c>
-      <c r="L58" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="59">
@@ -3315,37 +3321,37 @@
         <v>177</v>
       </c>
       <c r="C59" t="n">
-        <v>4.381404663E9</v>
+        <v>2.5345345345E10</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" t="s">
         <v>47</v>
-      </c>
-      <c r="I59" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" t="s">
-        <v>36</v>
-      </c>
-      <c r="L59" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -3356,37 +3362,37 @@
         <v>179</v>
       </c>
       <c r="C60" t="n">
-        <v>9.849198885E9</v>
+        <v>1.1331657E9</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -3397,37 +3403,37 @@
         <v>181</v>
       </c>
       <c r="C61" t="n">
-        <v>5.91008718E9</v>
+        <v>1.034077515E9</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>84</v>
+      </c>
+      <c r="L61" t="s">
+        <v>73</v>
+      </c>
+      <c r="M61" t="s">
         <v>40</v>
-      </c>
-      <c r="J61" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -3438,406 +3444,406 @@
         <v>183</v>
       </c>
       <c r="C62" t="n">
-        <v>1037432.0</v>
+        <v>2.674439968E9</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K62" t="s">
+        <v>59</v>
+      </c>
+      <c r="L62" t="s">
         <v>35</v>
       </c>
-      <c r="L62" t="s">
-        <v>25</v>
-      </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C63" t="n">
-        <v>5.513555756E9</v>
+        <v>7.109563687E9</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J63" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L63" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" t="s">
         <v>186</v>
       </c>
-      <c r="B64" t="s">
-        <v>187</v>
-      </c>
       <c r="C64" t="n">
-        <v>4.708483206E9</v>
+        <v>6.45669088E9</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L64" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M64" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C65" t="n">
-        <v>1.466410665E9</v>
+        <v>5.683447845E9</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s">
         <v>21</v>
       </c>
-      <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="K65" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M65" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.168751052E9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" t="s">
         <v>189</v>
       </c>
-      <c r="C66" t="n">
-        <v>2.913954937E9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s">
+        <v>59</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+      <c r="K66" t="s">
+        <v>87</v>
+      </c>
+      <c r="L66" t="s">
+        <v>40</v>
+      </c>
+      <c r="M66" t="s">
         <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" t="s">
-        <v>135</v>
-      </c>
-      <c r="J66" t="s">
-        <v>67</v>
-      </c>
-      <c r="K66" t="s">
-        <v>47</v>
-      </c>
-      <c r="L66" t="s">
-        <v>55</v>
-      </c>
-      <c r="M66" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C67" t="n">
-        <v>5.374249629E9</v>
+        <v>9.615250531E9</v>
       </c>
       <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" t="s">
         <v>25</v>
       </c>
-      <c r="E67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I67" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L67" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M67" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C68" t="n">
-        <v>1248532.0</v>
+        <v>4.623688998E9</v>
       </c>
       <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
         <v>21</v>
       </c>
-      <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="s">
-        <v>64</v>
-      </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J68" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L68" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="M68" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C69" t="n">
-        <v>2.60681731E8</v>
+        <v>3.11111111E8</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="L69" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M69" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C70" t="n">
-        <v>6.625054576E9</v>
+        <v>3.4516312E7</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E70" t="s">
         <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J70" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L70" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M70" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71" t="n">
-        <v>4.352354365536E12</v>
+        <v>6.7977624E7</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s">
+        <v>63</v>
+      </c>
+      <c r="I71" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" t="s">
+        <v>59</v>
+      </c>
+      <c r="L71" t="s">
+        <v>59</v>
+      </c>
+      <c r="M71" t="s">
         <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>201</v>
-      </c>
-      <c r="H71" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s">
-        <v>76</v>
-      </c>
-      <c r="K71" t="s">
-        <v>40</v>
-      </c>
-      <c r="L71" t="s">
-        <v>25</v>
-      </c>
-      <c r="M71" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -3848,37 +3854,37 @@
         <v>203</v>
       </c>
       <c r="C72" t="n">
-        <v>7.390458629E9</v>
+        <v>6.742037365E9</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
       </c>
       <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
         <v>204</v>
       </c>
-      <c r="I72" t="s">
-        <v>67</v>
-      </c>
       <c r="J72" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="K72" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L72" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -3889,37 +3895,37 @@
         <v>206</v>
       </c>
       <c r="C73" t="n">
-        <v>6.697772024E9</v>
+        <v>3.324045244E9</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="L73" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3930,37 +3936,37 @@
         <v>208</v>
       </c>
       <c r="C74" t="n">
-        <v>234367.0</v>
+        <v>8.25871305E9</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" t="s">
+        <v>63</v>
+      </c>
+      <c r="J74" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" t="s">
+        <v>84</v>
+      </c>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" t="s">
         <v>47</v>
-      </c>
-      <c r="F74" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" t="s">
-        <v>43</v>
-      </c>
-      <c r="H74" t="s">
-        <v>135</v>
-      </c>
-      <c r="I74" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74" t="s">
-        <v>36</v>
-      </c>
-      <c r="K74" t="s">
-        <v>26</v>
-      </c>
-      <c r="L74" t="s">
-        <v>83</v>
-      </c>
-      <c r="M74" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="75">
@@ -3971,37 +3977,37 @@
         <v>210</v>
       </c>
       <c r="C75" t="n">
-        <v>6.764611459E9</v>
+        <v>3.573471036E9</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" t="s">
         <v>41</v>
       </c>
-      <c r="F75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G75" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" t="s">
-        <v>40</v>
-      </c>
       <c r="I75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J75" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M75" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
@@ -4012,37 +4018,37 @@
         <v>212</v>
       </c>
       <c r="C76" t="n">
-        <v>5.68182068E8</v>
+        <v>4.32743167E9</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="K76" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="L76" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M76" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -4053,37 +4059,37 @@
         <v>214</v>
       </c>
       <c r="C77" t="n">
-        <v>2.5635927E8</v>
+        <v>8.874920103E9</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H77" t="s">
         <v>47</v>
       </c>
-      <c r="H77" t="s">
-        <v>18</v>
-      </c>
       <c r="I77" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="K77" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L77" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" t="s">
         <v>21</v>
-      </c>
-      <c r="M77" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="78">
@@ -4094,37 +4100,37 @@
         <v>216</v>
       </c>
       <c r="C78" t="n">
-        <v>4.557309301E9</v>
+        <v>7.932316643E9</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="J78" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="L78" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M78" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -4135,1674 +4141,1674 @@
         <v>218</v>
       </c>
       <c r="C79" t="n">
-        <v>3.83948825E9</v>
+        <v>5382341.0</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>56</v>
+      </c>
+      <c r="J79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" t="s">
         <v>41</v>
       </c>
-      <c r="I79" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" t="s">
-        <v>35</v>
-      </c>
-      <c r="K79" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" t="s">
-        <v>27</v>
-      </c>
       <c r="M79" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="C80" t="n">
-        <v>1.859925444E9</v>
+        <v>4.572922001E9</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K80" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L80" t="s">
+        <v>47</v>
+      </c>
+      <c r="M80" t="s">
         <v>16</v>
-      </c>
-      <c r="M80" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C81" t="n">
-        <v>1.984611027E9</v>
+        <v>1.386782423E9</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="L81" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="C82" t="n">
-        <v>6.31505229E9</v>
+        <v>3.456789E7</v>
       </c>
       <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
         <v>47</v>
       </c>
-      <c r="E82" t="s">
-        <v>33</v>
-      </c>
-      <c r="F82" t="s">
-        <v>67</v>
-      </c>
       <c r="G82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I82" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J82" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L82" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C83" t="n">
-        <v>1.858110343E9</v>
+        <v>6.203680145E9</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="I83" t="s">
         <v>41</v>
       </c>
       <c r="J83" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="L83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="C84" t="n">
-        <v>9.978513007E9</v>
+        <v>8.192573578E9</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L84" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="M84" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C85" t="n">
-        <v>8.239638509E9</v>
+        <v>6.51720155E9</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
         <v>15</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>25</v>
       </c>
-      <c r="H85" t="s">
-        <v>28</v>
-      </c>
       <c r="I85" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K85" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="M85" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C86" t="n">
-        <v>3.160659342E9</v>
+        <v>1.48184306E9</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
         <v>26</v>
       </c>
-      <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
+        <v>36</v>
+      </c>
+      <c r="I86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" t="s">
         <v>18</v>
       </c>
-      <c r="H86" t="s">
-        <v>50</v>
-      </c>
-      <c r="I86" t="s">
-        <v>116</v>
-      </c>
-      <c r="J86" t="s">
-        <v>35</v>
-      </c>
-      <c r="K86" t="s">
-        <v>76</v>
-      </c>
-      <c r="L86" t="s">
-        <v>34</v>
-      </c>
       <c r="M86" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C87" t="n">
-        <v>2.697207764E9</v>
+        <v>5.374249629E9</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L87" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C88" t="n">
-        <v>6.616830756E9</v>
+        <v>9.125425524E9</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
         <v>32</v>
       </c>
-      <c r="H88" t="s">
-        <v>59</v>
-      </c>
       <c r="I88" t="s">
+        <v>63</v>
+      </c>
+      <c r="J88" t="s">
+        <v>63</v>
+      </c>
+      <c r="K88" t="s">
+        <v>40</v>
+      </c>
+      <c r="L88" t="s">
         <v>18</v>
       </c>
-      <c r="J88" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" t="s">
-        <v>76</v>
-      </c>
-      <c r="L88" t="s">
-        <v>23</v>
-      </c>
       <c r="M88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B89" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C89" t="n">
-        <v>6.64442222223E11</v>
+        <v>4.392365827E9</v>
       </c>
       <c r="D89" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J89" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K89" t="s">
         <v>16</v>
       </c>
       <c r="L89" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="M89" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C90" t="n">
-        <v>8.407967758E9</v>
+        <v>8.438764156E9</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="E90" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" t="s">
         <v>17</v>
       </c>
-      <c r="H90" t="s">
-        <v>36</v>
-      </c>
       <c r="I90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J90" t="s">
+        <v>40</v>
+      </c>
+      <c r="K90" t="s">
         <v>25</v>
       </c>
-      <c r="J90" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" t="s">
-        <v>17</v>
-      </c>
       <c r="L90" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M90" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C91" t="n">
-        <v>5.345271302E9</v>
+        <v>9.571046396E9</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>63</v>
+      </c>
+      <c r="J91" t="s">
+        <v>63</v>
+      </c>
+      <c r="K91" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91" t="s">
         <v>41</v>
       </c>
-      <c r="H91" t="s">
-        <v>43</v>
-      </c>
-      <c r="I91" t="s">
-        <v>27</v>
-      </c>
-      <c r="J91" t="s">
-        <v>55</v>
-      </c>
-      <c r="K91" t="s">
-        <v>17</v>
-      </c>
-      <c r="L91" t="s">
-        <v>76</v>
-      </c>
       <c r="M91" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C92" t="n">
-        <v>3.136738743E9</v>
+        <v>1.458336781E9</v>
       </c>
       <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
         <v>47</v>
       </c>
-      <c r="E92" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>15</v>
       </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" t="s">
-        <v>16</v>
-      </c>
       <c r="J92" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K92" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L92" t="s">
         <v>47</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C93" t="n">
-        <v>4.849006435E9</v>
+        <v>5.096543236E9</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H93" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="K93" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L93" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="M93" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C94" t="n">
-        <v>6.288663398E9</v>
+        <v>7.8576591E8</v>
       </c>
       <c r="D94" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J94" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L94" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M94" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C95" t="n">
-        <v>5.508614615E9</v>
+        <v>3.324045244E9</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G95" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I95" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J95" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C96" t="n">
-        <v>7.653671888E9</v>
+        <v>7.751586475E9</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s">
+        <v>63</v>
+      </c>
+      <c r="K96" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" t="s">
+        <v>72</v>
+      </c>
+      <c r="M96" t="s">
         <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" t="s">
-        <v>201</v>
-      </c>
-      <c r="I96" t="s">
-        <v>67</v>
-      </c>
-      <c r="J96" t="s">
-        <v>67</v>
-      </c>
-      <c r="K96" t="s">
-        <v>67</v>
-      </c>
-      <c r="L96" t="s">
-        <v>47</v>
-      </c>
-      <c r="M96" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C97" t="n">
-        <v>6.74210168E8</v>
+        <v>1.904545724E9</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G97" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K97" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L97" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="M97" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B98" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C98" t="n">
-        <v>2.13254678798E11</v>
+        <v>6.791667733E9</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" t="s">
         <v>35</v>
       </c>
-      <c r="I98" t="s">
-        <v>33</v>
-      </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" t="s">
-        <v>204</v>
-      </c>
       <c r="L98" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M98" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C99" t="n">
-        <v>9.94736796E8</v>
+        <v>6.334069779E9</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J99" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L99" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="M99" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C100" t="n">
-        <v>5.029305425E9</v>
+        <v>2.297806657E9</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="G100" t="s">
+        <v>165</v>
+      </c>
+      <c r="H100" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
         <v>33</v>
       </c>
-      <c r="H100" t="s">
-        <v>43</v>
-      </c>
-      <c r="I100" t="s">
-        <v>23</v>
-      </c>
-      <c r="J100" t="s">
-        <v>16</v>
-      </c>
       <c r="K100" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L100" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M100" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C101" t="n">
-        <v>6.968703183E9</v>
+        <v>5.68326976E8</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L101" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M101" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C102" t="n">
-        <v>5.121641199E9</v>
+        <v>4.181521174E9</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102" t="s">
+        <v>59</v>
+      </c>
+      <c r="K102" t="s">
+        <v>91</v>
+      </c>
+      <c r="L102" t="s">
         <v>18</v>
       </c>
-      <c r="H102" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" t="s">
-        <v>26</v>
-      </c>
-      <c r="J102" t="s">
-        <v>35</v>
-      </c>
-      <c r="K102" t="s">
-        <v>63</v>
-      </c>
-      <c r="L102" t="s">
-        <v>36</v>
-      </c>
       <c r="M102" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C103" t="n">
-        <v>7.977909301E9</v>
+        <v>2.251555373E9</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H103" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I103" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L103" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M103" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="C104" t="n">
-        <v>1.324149925E9</v>
+        <v>7.678783231E9</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K104" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="L104" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="M104" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="C105" t="n">
-        <v>8.194223807E9</v>
+        <v>2.22222200009E11</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H105" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="L105" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M105" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C106" t="n">
-        <v>1.27760909E8</v>
+        <v>1.85434278E8</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E106" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s">
         <v>18</v>
       </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" t="s">
-        <v>89</v>
-      </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="K106" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="L106" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M106" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C107" t="n">
-        <v>5.135595317E9</v>
+        <v>5.557773333E9</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I107" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J107" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K107" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L107" t="s">
+        <v>41</v>
+      </c>
+      <c r="M107" t="s">
         <v>24</v>
-      </c>
-      <c r="M107" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B108" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C108" t="n">
-        <v>9.2219749E8</v>
+        <v>5.703649956E9</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H108" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I108" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="J108" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K108" t="s">
         <v>16</v>
       </c>
       <c r="L108" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="M108" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B109" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C109" t="n">
-        <v>9.243355462E9</v>
+        <v>5.478106648E9</v>
       </c>
       <c r="D109" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H109" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J109" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K109" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L109" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="M109" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C110" t="n">
-        <v>8.92279582E9</v>
+        <v>5.01679615E9</v>
       </c>
       <c r="D110" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E110" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H110" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I110" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="J110" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K110" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="L110" t="s">
+        <v>63</v>
+      </c>
+      <c r="M110" t="s">
         <v>26</v>
-      </c>
-      <c r="M110" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C111" t="n">
-        <v>9.571046396E9</v>
+        <v>6.423218152E9</v>
       </c>
       <c r="D111" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G111" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I111" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L111" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M111" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="C112" t="n">
-        <v>8.874920103E9</v>
+        <v>5.810044236E9</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H112" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K112" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="L112" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="M112" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>279</v>
+      </c>
+      <c r="B113" t="s">
         <v>280</v>
       </c>
-      <c r="B113" t="s">
-        <v>281</v>
-      </c>
       <c r="C113" t="n">
-        <v>2.469163359E9</v>
+        <v>8.07344617E8</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H113" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J113" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K113" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L113" t="s">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="M113" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>283</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>284</v>
+        <v>61</v>
       </c>
       <c r="C114" t="n">
-        <v>2.878870304E9</v>
+        <v>2.22222200009E11</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G114" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="H114" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J114" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="K114" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L114" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M114" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="C115" t="n">
-        <v>3.83948825E9</v>
+        <v>8.64137787E8</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H115" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I115" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" t="s">
         <v>18</v>
       </c>
-      <c r="J115" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" t="s">
-        <v>71</v>
-      </c>
       <c r="L115" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M115" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C116" t="n">
-        <v>9.243355462E9</v>
+        <v>1.491612733E9</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G116" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H116" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J116" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="K116" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M116" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="C117" t="n">
-        <v>8.470313807E9</v>
+        <v>2.546918729E9</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="H117" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J117" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K117" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="L117" t="s">
+        <v>46</v>
+      </c>
+      <c r="M117" t="s">
         <v>21</v>
-      </c>
-      <c r="M117" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C118" t="n">
-        <v>4.988725571E9</v>
+        <v>1.5758377E9</v>
       </c>
       <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" t="s">
+        <v>32</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" t="s">
         <v>17</v>
       </c>
-      <c r="E118" t="s">
-        <v>35</v>
-      </c>
-      <c r="F118" t="s">
-        <v>47</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" t="s">
-        <v>20</v>
-      </c>
-      <c r="I118" t="s">
-        <v>27</v>
-      </c>
       <c r="J118" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K118" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="L118" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M118" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C119" t="n">
-        <v>8.394967843E9</v>
+        <v>1.99237205E9</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H119" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="K119" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="L119" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M119" t="s">
         <v>41</v>
